--- a/Zeus/data/TSP/Results/att532.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/att532.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>94024.8515625</v>
+        <v>94858.1875</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>94024.8515625</v>
+        <v>94858.1875</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -431,16 +431,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>510.0</v>
+        <v>526.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2384.0</v>
+        <v>2647.0</v>
       </c>
       <c r="D23" t="n">
-        <v>695.0</v>
+        <v>485.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -448,16 +448,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>526.0</v>
+        <v>510.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>2647.0</v>
+        <v>2384.0</v>
       </c>
       <c r="D24" t="n">
-        <v>485.0</v>
+        <v>695.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>485.0</v>
+        <v>457.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>572.0</v>
+        <v>602.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1108.0</v>
+        <v>1395.0</v>
       </c>
       <c r="E35" t="n">
         <v>1.0</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>489.0</v>
+        <v>485.0</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>527.0</v>
+        <v>572.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1077.0</v>
+        <v>1108.0</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>476.0</v>
+        <v>489.0</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>513.0</v>
+        <v>527.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1247.0</v>
+        <v>1077.0</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>475.0</v>
+        <v>476.0</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>489.0</v>
+        <v>513.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1254.0</v>
+        <v>1247.0</v>
       </c>
       <c r="E38" t="n">
         <v>1.0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>473.0</v>
+        <v>475.0</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>478.0</v>
+        <v>489.0</v>
       </c>
       <c r="D39" t="n">
-        <v>1256.0</v>
+        <v>1254.0</v>
       </c>
       <c r="E39" t="n">
         <v>1.0</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>472.0</v>
+        <v>473.0</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
       </c>
       <c r="C40" t="n">
-        <v>450.0</v>
+        <v>478.0</v>
       </c>
       <c r="D40" t="n">
-        <v>1274.0</v>
+        <v>1256.0</v>
       </c>
       <c r="E40" t="n">
         <v>1.0</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>465.0</v>
+        <v>472.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>413.0</v>
+        <v>450.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1338.0</v>
+        <v>1274.0</v>
       </c>
       <c r="E41" t="n">
         <v>1.0</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>457.0</v>
+        <v>465.0</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>602.0</v>
+        <v>413.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1395.0</v>
+        <v>1338.0</v>
       </c>
       <c r="E43" t="n">
         <v>1.0</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>446.0</v>
+        <v>452.0</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>552.0</v>
+        <v>345.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1526.0</v>
+        <v>1476.0</v>
       </c>
       <c r="E44" t="n">
         <v>1.0</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>452.0</v>
+        <v>446.0</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>345.0</v>
+        <v>552.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1476.0</v>
+        <v>1526.0</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>243.0</v>
+        <v>278.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>536.0</v>
+        <v>525.0</v>
       </c>
       <c r="D62" t="n">
-        <v>3481.0</v>
+        <v>3297.0</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>278.0</v>
+        <v>243.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>525.0</v>
+        <v>536.0</v>
       </c>
       <c r="D63" t="n">
-        <v>3297.0</v>
+        <v>3481.0</v>
       </c>
       <c r="E63" t="n">
         <v>1.0</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>285.0</v>
+        <v>220.0</v>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>741.0</v>
+        <v>952.0</v>
       </c>
       <c r="D64" t="n">
-        <v>3235.0</v>
+        <v>3583.0</v>
       </c>
       <c r="E64" t="n">
         <v>1.0</v>
@@ -1145,16 +1145,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>302.0</v>
+        <v>217.0</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>806.0</v>
+        <v>1047.0</v>
       </c>
       <c r="D65" t="n">
-        <v>3123.0</v>
+        <v>3602.0</v>
       </c>
       <c r="E65" t="n">
         <v>1.0</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>311.0</v>
+        <v>285.0</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>920.0</v>
+        <v>741.0</v>
       </c>
       <c r="D66" t="n">
-        <v>3065.0</v>
+        <v>3235.0</v>
       </c>
       <c r="E66" t="n">
         <v>1.0</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>220.0</v>
+        <v>302.0</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>952.0</v>
+        <v>806.0</v>
       </c>
       <c r="D68" t="n">
-        <v>3583.0</v>
+        <v>3123.0</v>
       </c>
       <c r="E68" t="n">
         <v>1.0</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>217.0</v>
+        <v>311.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>1047.0</v>
+        <v>920.0</v>
       </c>
       <c r="D69" t="n">
-        <v>3602.0</v>
+        <v>3065.0</v>
       </c>
       <c r="E69" t="n">
         <v>1.0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>239.0</v>
+        <v>347.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>1482.0</v>
+        <v>1263.0</v>
       </c>
       <c r="D70" t="n">
-        <v>3494.0</v>
+        <v>2734.0</v>
       </c>
       <c r="E70" t="n">
         <v>1.0</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>347.0</v>
+        <v>361.0</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1263.0</v>
+        <v>1575.0</v>
       </c>
       <c r="D71" t="n">
-        <v>2734.0</v>
+        <v>2555.0</v>
       </c>
       <c r="E71" t="n">
         <v>1.0</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>361.0</v>
+        <v>239.0</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>1575.0</v>
+        <v>1482.0</v>
       </c>
       <c r="D72" t="n">
-        <v>2555.0</v>
+        <v>3494.0</v>
       </c>
       <c r="E72" t="n">
         <v>1.0</v>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>390.0</v>
+        <v>238.0</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>2126.0</v>
+        <v>1784.0</v>
       </c>
       <c r="D73" t="n">
-        <v>2150.0</v>
+        <v>3494.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>383.0</v>
+        <v>199.0</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>2067.0</v>
+        <v>1851.0</v>
       </c>
       <c r="D74" t="n">
-        <v>2254.0</v>
+        <v>3710.0</v>
       </c>
       <c r="E74" t="n">
         <v>1.0</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>354.0</v>
+        <v>251.0</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
       </c>
       <c r="C75" t="n">
-        <v>1882.0</v>
+        <v>2342.0</v>
       </c>
       <c r="D75" t="n">
-        <v>2684.0</v>
+        <v>3439.0</v>
       </c>
       <c r="E75" t="n">
         <v>1.0</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>238.0</v>
+        <v>354.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>1784.0</v>
+        <v>1882.0</v>
       </c>
       <c r="D77" t="n">
-        <v>3494.0</v>
+        <v>2684.0</v>
       </c>
       <c r="E77" t="n">
         <v>1.0</v>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>199.0</v>
+        <v>383.0</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>1851.0</v>
+        <v>2067.0</v>
       </c>
       <c r="D78" t="n">
-        <v>3710.0</v>
+        <v>2254.0</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251.0</v>
+        <v>390.0</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>2342.0</v>
+        <v>2126.0</v>
       </c>
       <c r="D79" t="n">
-        <v>3439.0</v>
+        <v>2150.0</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -1400,16 +1400,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>330.0</v>
+        <v>401.0</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>2835.0</v>
+        <v>2694.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2912.0</v>
+        <v>2026.0</v>
       </c>
       <c r="E80" t="n">
         <v>1.0</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>369.0</v>
+        <v>330.0</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>3189.0</v>
+        <v>2835.0</v>
       </c>
       <c r="D81" t="n">
-        <v>2411.0</v>
+        <v>2912.0</v>
       </c>
       <c r="E81" t="n">
         <v>1.0</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>377.0</v>
+        <v>274.0</v>
       </c>
       <c r="B82" t="n">
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>3233.0</v>
+        <v>3229.0</v>
       </c>
       <c r="D82" t="n">
-        <v>2329.0</v>
+        <v>3312.0</v>
       </c>
       <c r="E82" t="n">
         <v>1.0</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>356.0</v>
+        <v>336.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>3174.0</v>
+        <v>3307.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2627.0</v>
+        <v>2833.0</v>
       </c>
       <c r="E83" t="n">
         <v>1.0</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>336.0</v>
+        <v>356.0</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>3307.0</v>
+        <v>3174.0</v>
       </c>
       <c r="D85" t="n">
-        <v>2833.0</v>
+        <v>2627.0</v>
       </c>
       <c r="E85" t="n">
         <v>1.0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>274.0</v>
+        <v>369.0</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>3229.0</v>
+        <v>3189.0</v>
       </c>
       <c r="D86" t="n">
-        <v>3312.0</v>
+        <v>2411.0</v>
       </c>
       <c r="E86" t="n">
         <v>1.0</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>157.0</v>
+        <v>377.0</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>3108.0</v>
+        <v>3233.0</v>
       </c>
       <c r="D87" t="n">
-        <v>3908.0</v>
+        <v>2329.0</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>117.0</v>
+        <v>389.0</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
       </c>
       <c r="C88" t="n">
-        <v>2906.0</v>
+        <v>3319.0</v>
       </c>
       <c r="D88" t="n">
-        <v>4131.0</v>
+        <v>2151.0</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>139.0</v>
+        <v>398.0</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>3396.0</v>
+        <v>3390.0</v>
       </c>
       <c r="D89" t="n">
-        <v>3990.0</v>
+        <v>2043.0</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -1570,16 +1570,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>173.0</v>
+        <v>432.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>3824.0</v>
+        <v>2908.0</v>
       </c>
       <c r="D90" t="n">
-        <v>3838.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>69.0</v>
+        <v>471.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>3832.0</v>
+        <v>3245.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4410.0</v>
+        <v>1281.0</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>98.0</v>
+        <v>509.0</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
       </c>
       <c r="C92" t="n">
-        <v>3950.0</v>
+        <v>3390.0</v>
       </c>
       <c r="D92" t="n">
-        <v>4215.0</v>
+        <v>698.0</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>95.0</v>
+        <v>522.0</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>4217.0</v>
+        <v>3477.0</v>
       </c>
       <c r="D93" t="n">
-        <v>4224.0</v>
+        <v>599.0</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>88.0</v>
+        <v>504.0</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4354.0</v>
+        <v>3499.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4262.0</v>
+        <v>863.0</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>61.0</v>
+        <v>491.0</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>4602.0</v>
+        <v>3719.0</v>
       </c>
       <c r="D95" t="n">
-        <v>4478.0</v>
+        <v>1043.0</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>62.0</v>
+        <v>483.0</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>4606.0</v>
+        <v>4125.0</v>
       </c>
       <c r="D96" t="n">
-        <v>4468.0</v>
+        <v>1125.0</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>121.0</v>
+        <v>478.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>4427.0</v>
+        <v>4170.0</v>
       </c>
       <c r="D97" t="n">
-        <v>4109.0</v>
+        <v>1232.0</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>142.0</v>
+        <v>500.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>4342.0</v>
+        <v>4244.0</v>
       </c>
       <c r="D98" t="n">
-        <v>3966.0</v>
+        <v>896.0</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>184.0</v>
+        <v>502.0</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>4293.0</v>
+        <v>4569.0</v>
       </c>
       <c r="D99" t="n">
-        <v>3788.0</v>
+        <v>886.0</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>229.0</v>
+        <v>486.0</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>4232.0</v>
+        <v>4500.0</v>
       </c>
       <c r="D100" t="n">
-        <v>3551.0</v>
+        <v>1093.0</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>266.0</v>
+        <v>482.0</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
       </c>
       <c r="C101" t="n">
-        <v>4364.0</v>
+        <v>4619.0</v>
       </c>
       <c r="D101" t="n">
-        <v>3362.0</v>
+        <v>1132.0</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>293.0</v>
+        <v>492.0</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>4252.0</v>
+        <v>4805.0</v>
       </c>
       <c r="D102" t="n">
-        <v>3206.0</v>
+        <v>1033.0</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -1791,16 +1791,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>327.0</v>
+        <v>496.0</v>
       </c>
       <c r="B103" t="n">
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>4196.0</v>
+        <v>5069.0</v>
       </c>
       <c r="D103" t="n">
-        <v>2929.0</v>
+        <v>998.0</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>320.0</v>
+        <v>484.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>4458.0</v>
+        <v>5139.0</v>
       </c>
       <c r="D104" t="n">
-        <v>3007.0</v>
+        <v>1124.0</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>301.0</v>
+        <v>493.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
       </c>
       <c r="C105" t="n">
-        <v>4537.0</v>
+        <v>5140.0</v>
       </c>
       <c r="D105" t="n">
-        <v>3143.0</v>
+        <v>1018.0</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>329.0</v>
+        <v>494.0</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>4831.0</v>
+        <v>5344.0</v>
       </c>
       <c r="D106" t="n">
-        <v>2917.0</v>
+        <v>1003.0</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>335.0</v>
+        <v>505.0</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>4898.0</v>
+        <v>5136.0</v>
       </c>
       <c r="D107" t="n">
-        <v>2840.0</v>
+        <v>825.0</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -1876,16 +1876,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>343.0</v>
+        <v>519.0</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>4929.0</v>
+        <v>5070.0</v>
       </c>
       <c r="D108" t="n">
-        <v>2803.0</v>
+        <v>605.0</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>349.0</v>
+        <v>531.0</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>4763.0</v>
+        <v>5393.0</v>
       </c>
       <c r="D109" t="n">
-        <v>2720.0</v>
+        <v>355.0</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>355.0</v>
+        <v>532.0</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>4584.0</v>
+        <v>5469.0</v>
       </c>
       <c r="D110" t="n">
-        <v>2643.0</v>
+        <v>10.0</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>360.0</v>
+        <v>501.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>4476.0</v>
+        <v>5596.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2555.0</v>
+        <v>892.0</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>375.0</v>
+        <v>495.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>4612.0</v>
+        <v>5532.0</v>
       </c>
       <c r="D112" t="n">
-        <v>2341.0</v>
+        <v>998.0</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>372.0</v>
+        <v>498.0</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>4488.0</v>
+        <v>5666.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2378.0</v>
+        <v>914.0</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -1978,16 +1978,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>385.0</v>
+        <v>490.0</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
       </c>
       <c r="C114" t="n">
-        <v>4174.0</v>
+        <v>5788.0</v>
       </c>
       <c r="D114" t="n">
-        <v>2190.0</v>
+        <v>1053.0</v>
       </c>
       <c r="E114" t="n">
         <v>1.0</v>
@@ -1995,16 +1995,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>411.0</v>
+        <v>481.0</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>4012.0</v>
+        <v>5930.0</v>
       </c>
       <c r="D115" t="n">
-        <v>1886.0</v>
+        <v>1151.0</v>
       </c>
       <c r="E115" t="n">
         <v>1.0</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>441.0</v>
+        <v>467.0</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>4056.0</v>
+        <v>5840.0</v>
       </c>
       <c r="D116" t="n">
-        <v>1564.0</v>
+        <v>1325.0</v>
       </c>
       <c r="E116" t="n">
         <v>1.0</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>398.0</v>
+        <v>456.0</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>3390.0</v>
+        <v>5964.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2043.0</v>
+        <v>1421.0</v>
       </c>
       <c r="E117" t="n">
         <v>1.0</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>389.0</v>
+        <v>477.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>3319.0</v>
+        <v>6136.0</v>
       </c>
       <c r="D118" t="n">
-        <v>2151.0</v>
+        <v>1243.0</v>
       </c>
       <c r="E118" t="n">
         <v>1.0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>401.0</v>
+        <v>461.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>2694.0</v>
+        <v>6258.0</v>
       </c>
       <c r="D119" t="n">
-        <v>2026.0</v>
+        <v>1354.0</v>
       </c>
       <c r="E119" t="n">
         <v>1.0</v>
@@ -2080,16 +2080,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>432.0</v>
+        <v>470.0</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>2908.0</v>
+        <v>6359.0</v>
       </c>
       <c r="D120" t="n">
-        <v>1681.0</v>
+        <v>1298.0</v>
       </c>
       <c r="E120" t="n">
         <v>1.0</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>471.0</v>
+        <v>469.0</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>3245.0</v>
+        <v>6379.0</v>
       </c>
       <c r="D121" t="n">
-        <v>1281.0</v>
+        <v>1302.0</v>
       </c>
       <c r="E121" t="n">
         <v>1.0</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>504.0</v>
+        <v>468.0</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>3499.0</v>
+        <v>6378.0</v>
       </c>
       <c r="D122" t="n">
-        <v>863.0</v>
+        <v>1314.0</v>
       </c>
       <c r="E122" t="n">
         <v>1.0</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>509.0</v>
+        <v>463.0</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
       </c>
       <c r="C123" t="n">
-        <v>3390.0</v>
+        <v>6494.0</v>
       </c>
       <c r="D123" t="n">
-        <v>698.0</v>
+        <v>1347.0</v>
       </c>
       <c r="E123" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>522.0</v>
+        <v>447.0</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>3477.0</v>
+        <v>6621.0</v>
       </c>
       <c r="D124" t="n">
-        <v>599.0</v>
+        <v>1513.0</v>
       </c>
       <c r="E124" t="n">
         <v>1.0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>491.0</v>
+        <v>445.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>3719.0</v>
+        <v>6651.0</v>
       </c>
       <c r="D125" t="n">
-        <v>1043.0</v>
+        <v>1534.0</v>
       </c>
       <c r="E125" t="n">
         <v>1.0</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>483.0</v>
+        <v>433.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>4125.0</v>
+        <v>6496.0</v>
       </c>
       <c r="D126" t="n">
-        <v>1125.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E126" t="n">
         <v>1.0</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>478.0</v>
+        <v>407.0</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>4170.0</v>
+        <v>6493.0</v>
       </c>
       <c r="D127" t="n">
-        <v>1232.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E127" t="n">
         <v>1.0</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>500.0</v>
+        <v>418.0</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>4244.0</v>
+        <v>6252.0</v>
       </c>
       <c r="D128" t="n">
-        <v>896.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E128" t="n">
         <v>1.0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>502.0</v>
+        <v>431.0</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>4569.0</v>
+        <v>5914.0</v>
       </c>
       <c r="D129" t="n">
-        <v>886.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E129" t="n">
         <v>1.0</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>492.0</v>
+        <v>442.0</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4805.0</v>
+        <v>5637.0</v>
       </c>
       <c r="D130" t="n">
-        <v>1033.0</v>
+        <v>1558.0</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>482.0</v>
+        <v>428.0</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4619.0</v>
+        <v>5506.0</v>
       </c>
       <c r="D131" t="n">
-        <v>1132.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E131" t="n">
         <v>1.0</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>486.0</v>
+        <v>450.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4500.0</v>
+        <v>5472.0</v>
       </c>
       <c r="D132" t="n">
-        <v>1093.0</v>
+        <v>1482.0</v>
       </c>
       <c r="E132" t="n">
         <v>1.0</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>449.0</v>
+        <v>474.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>4719.0</v>
+        <v>5571.0</v>
       </c>
       <c r="D133" t="n">
-        <v>1504.0</v>
+        <v>1255.0</v>
       </c>
       <c r="E133" t="n">
         <v>1.0</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>412.0</v>
+        <v>455.0</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>4759.0</v>
+        <v>5114.0</v>
       </c>
       <c r="D134" t="n">
-        <v>1883.0</v>
+        <v>1430.0</v>
       </c>
       <c r="E134" t="n">
         <v>1.0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>440.0</v>
+        <v>458.0</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>5060.0</v>
+        <v>5098.0</v>
       </c>
       <c r="D135" t="n">
-        <v>1577.0</v>
+        <v>1394.0</v>
       </c>
       <c r="E135" t="n">
         <v>1.0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>454.0</v>
+        <v>459.0</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>5005.0</v>
+        <v>5068.0</v>
       </c>
       <c r="D136" t="n">
-        <v>1458.0</v>
+        <v>1390.0</v>
       </c>
       <c r="E136" t="n">
         <v>1.0</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>455.0</v>
+        <v>462.0</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>5114.0</v>
+        <v>5010.0</v>
       </c>
       <c r="D137" t="n">
-        <v>1430.0</v>
+        <v>1351.0</v>
       </c>
       <c r="E137" t="n">
         <v>1.0</v>
@@ -2386,16 +2386,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>458.0</v>
+        <v>454.0</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5098.0</v>
+        <v>5005.0</v>
       </c>
       <c r="D138" t="n">
-        <v>1394.0</v>
+        <v>1458.0</v>
       </c>
       <c r="E138" t="n">
         <v>1.0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>459.0</v>
+        <v>440.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>5068.0</v>
+        <v>5060.0</v>
       </c>
       <c r="D139" t="n">
-        <v>1390.0</v>
+        <v>1577.0</v>
       </c>
       <c r="E139" t="n">
         <v>1.0</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>462.0</v>
+        <v>449.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>5010.0</v>
+        <v>4719.0</v>
       </c>
       <c r="D140" t="n">
-        <v>1351.0</v>
+        <v>1504.0</v>
       </c>
       <c r="E140" t="n">
         <v>1.0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>484.0</v>
+        <v>412.0</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>5139.0</v>
+        <v>4759.0</v>
       </c>
       <c r="D141" t="n">
-        <v>1124.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E141" t="n">
         <v>1.0</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>496.0</v>
+        <v>393.0</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>5069.0</v>
+        <v>4959.0</v>
       </c>
       <c r="D142" t="n">
-        <v>998.0</v>
+        <v>2123.0</v>
       </c>
       <c r="E142" t="n">
         <v>1.0</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>493.0</v>
+        <v>394.0</v>
       </c>
       <c r="B143" t="n">
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>5140.0</v>
+        <v>4996.0</v>
       </c>
       <c r="D143" t="n">
-        <v>1018.0</v>
+        <v>2115.0</v>
       </c>
       <c r="E143" t="n">
         <v>1.0</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>494.0</v>
+        <v>384.0</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>5344.0</v>
+        <v>5260.0</v>
       </c>
       <c r="D144" t="n">
-        <v>1003.0</v>
+        <v>2230.0</v>
       </c>
       <c r="E144" t="n">
         <v>1.0</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>505.0</v>
+        <v>396.0</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>5136.0</v>
+        <v>5277.0</v>
       </c>
       <c r="D145" t="n">
-        <v>825.0</v>
+        <v>2078.0</v>
       </c>
       <c r="E145" t="n">
         <v>1.0</v>
@@ -2522,16 +2522,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>519.0</v>
+        <v>395.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>5070.0</v>
+        <v>5681.0</v>
       </c>
       <c r="D146" t="n">
-        <v>605.0</v>
+        <v>2109.0</v>
       </c>
       <c r="E146" t="n">
         <v>1.0</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>531.0</v>
+        <v>400.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>5393.0</v>
+        <v>6139.0</v>
       </c>
       <c r="D147" t="n">
-        <v>355.0</v>
+        <v>2032.0</v>
       </c>
       <c r="E147" t="n">
         <v>1.0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>532.0</v>
+        <v>374.0</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
       </c>
       <c r="C148" t="n">
-        <v>5469.0</v>
+        <v>6007.0</v>
       </c>
       <c r="D148" t="n">
-        <v>10.0</v>
+        <v>2359.0</v>
       </c>
       <c r="E148" t="n">
         <v>1.0</v>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>501.0</v>
+        <v>380.0</v>
       </c>
       <c r="B149" t="n">
         <v>0.0</v>
       </c>
       <c r="C149" t="n">
-        <v>5596.0</v>
+        <v>6307.0</v>
       </c>
       <c r="D149" t="n">
-        <v>892.0</v>
+        <v>2295.0</v>
       </c>
       <c r="E149" t="n">
         <v>1.0</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>495.0</v>
+        <v>379.0</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>5532.0</v>
+        <v>6686.0</v>
       </c>
       <c r="D150" t="n">
-        <v>998.0</v>
+        <v>2312.0</v>
       </c>
       <c r="E150" t="n">
         <v>1.0</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>498.0</v>
+        <v>367.0</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>5666.0</v>
+        <v>6547.0</v>
       </c>
       <c r="D151" t="n">
-        <v>914.0</v>
+        <v>2506.0</v>
       </c>
       <c r="E151" t="n">
         <v>1.0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>490.0</v>
+        <v>359.0</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>5788.0</v>
+        <v>6597.0</v>
       </c>
       <c r="D152" t="n">
-        <v>1053.0</v>
+        <v>2563.0</v>
       </c>
       <c r="E152" t="n">
         <v>1.0</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>481.0</v>
+        <v>364.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>5930.0</v>
+        <v>6800.0</v>
       </c>
       <c r="D153" t="n">
-        <v>1151.0</v>
+        <v>2532.0</v>
       </c>
       <c r="E153" t="n">
         <v>1.0</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>467.0</v>
+        <v>352.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>5840.0</v>
+        <v>6848.0</v>
       </c>
       <c r="D154" t="n">
-        <v>1325.0</v>
+        <v>2712.0</v>
       </c>
       <c r="E154" t="n">
         <v>1.0</v>
@@ -2675,16 +2675,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>456.0</v>
+        <v>348.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>5964.0</v>
+        <v>6766.0</v>
       </c>
       <c r="D155" t="n">
-        <v>1421.0</v>
+        <v>2732.0</v>
       </c>
       <c r="E155" t="n">
         <v>1.0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>431.0</v>
+        <v>328.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
       </c>
       <c r="C156" t="n">
-        <v>5914.0</v>
+        <v>6617.0</v>
       </c>
       <c r="D156" t="n">
-        <v>1682.0</v>
+        <v>2928.0</v>
       </c>
       <c r="E156" t="n">
         <v>1.0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>442.0</v>
+        <v>339.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>5637.0</v>
+        <v>6422.0</v>
       </c>
       <c r="D157" t="n">
-        <v>1558.0</v>
+        <v>2820.0</v>
       </c>
       <c r="E157" t="n">
         <v>1.0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>474.0</v>
+        <v>312.0</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>5571.0</v>
+        <v>6468.0</v>
       </c>
       <c r="D158" t="n">
-        <v>1255.0</v>
+        <v>3050.0</v>
       </c>
       <c r="E158" t="n">
         <v>1.0</v>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>450.0</v>
+        <v>319.0</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5472.0</v>
+        <v>6387.0</v>
       </c>
       <c r="D159" t="n">
-        <v>1482.0</v>
+        <v>3008.0</v>
       </c>
       <c r="E159" t="n">
         <v>1.0</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>428.0</v>
+        <v>305.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>5506.0</v>
+        <v>6204.0</v>
       </c>
       <c r="D160" t="n">
-        <v>1719.0</v>
+        <v>3099.0</v>
       </c>
       <c r="E160" t="n">
         <v>1.0</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>395.0</v>
+        <v>303.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>5681.0</v>
+        <v>6113.0</v>
       </c>
       <c r="D161" t="n">
-        <v>2109.0</v>
+        <v>3101.0</v>
       </c>
       <c r="E161" t="n">
         <v>1.0</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>396.0</v>
+        <v>321.0</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>5277.0</v>
+        <v>6190.0</v>
       </c>
       <c r="D162" t="n">
-        <v>2078.0</v>
+        <v>2985.0</v>
       </c>
       <c r="E162" t="n">
         <v>1.0</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>384.0</v>
+        <v>334.0</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>5260.0</v>
+        <v>6044.0</v>
       </c>
       <c r="D163" t="n">
-        <v>2230.0</v>
+        <v>2848.0</v>
       </c>
       <c r="E163" t="n">
         <v>1.0</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>394.0</v>
+        <v>344.0</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>4996.0</v>
+        <v>5963.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2115.0</v>
+        <v>2789.0</v>
       </c>
       <c r="E164" t="n">
         <v>1.0</v>
@@ -2845,16 +2845,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>393.0</v>
+        <v>340.0</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
       </c>
       <c r="C165" t="n">
-        <v>4959.0</v>
+        <v>5881.0</v>
       </c>
       <c r="D165" t="n">
-        <v>2123.0</v>
+        <v>2817.0</v>
       </c>
       <c r="E165" t="n">
         <v>1.0</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>371.0</v>
+        <v>324.0</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>4973.0</v>
+        <v>5930.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2406.0</v>
+        <v>2948.0</v>
       </c>
       <c r="E166" t="n">
         <v>1.0</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>370.0</v>
+        <v>282.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>5117.0</v>
+        <v>6050.0</v>
       </c>
       <c r="D167" t="n">
-        <v>2409.0</v>
+        <v>3242.0</v>
       </c>
       <c r="E167" t="n">
         <v>1.0</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>365.0</v>
+        <v>292.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5296.0</v>
+        <v>5960.0</v>
       </c>
       <c r="D168" t="n">
-        <v>2520.0</v>
+        <v>3207.0</v>
       </c>
       <c r="E168" t="n">
         <v>1.0</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>345.0</v>
+        <v>308.0</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>5470.0</v>
+        <v>5821.0</v>
       </c>
       <c r="D169" t="n">
-        <v>2774.0</v>
+        <v>3086.0</v>
       </c>
       <c r="E169" t="n">
         <v>1.0</v>
@@ -2930,16 +2930,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>332.0</v>
+        <v>313.0</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>5350.0</v>
+        <v>5677.0</v>
       </c>
       <c r="D170" t="n">
-        <v>2867.0</v>
+        <v>3049.0</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>326.0</v>
+        <v>316.0</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>5291.0</v>
+        <v>5650.0</v>
       </c>
       <c r="D171" t="n">
-        <v>2929.0</v>
+        <v>3023.0</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>318.0</v>
+        <v>299.0</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>5531.0</v>
+        <v>5679.0</v>
       </c>
       <c r="D172" t="n">
-        <v>3011.0</v>
+        <v>3171.0</v>
       </c>
       <c r="E172" t="n">
         <v>1.0</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>316.0</v>
+        <v>281.0</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
       </c>
       <c r="C173" t="n">
-        <v>5650.0</v>
+        <v>5697.0</v>
       </c>
       <c r="D173" t="n">
-        <v>3023.0</v>
+        <v>3269.0</v>
       </c>
       <c r="E173" t="n">
         <v>1.0</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>313.0</v>
+        <v>273.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>5677.0</v>
+        <v>5841.0</v>
       </c>
       <c r="D174" t="n">
-        <v>3049.0</v>
+        <v>3328.0</v>
       </c>
       <c r="E174" t="n">
         <v>1.0</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>299.0</v>
+        <v>250.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>5679.0</v>
+        <v>5796.0</v>
       </c>
       <c r="D175" t="n">
-        <v>3171.0</v>
+        <v>3459.0</v>
       </c>
       <c r="E175" t="n">
         <v>1.0</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>281.0</v>
+        <v>270.0</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>5697.0</v>
+        <v>5719.0</v>
       </c>
       <c r="D176" t="n">
-        <v>3269.0</v>
+        <v>3352.0</v>
       </c>
       <c r="E176" t="n">
         <v>1.0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>249.0</v>
+        <v>318.0</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>5400.0</v>
+        <v>5531.0</v>
       </c>
       <c r="D180" t="n">
-        <v>3461.0</v>
+        <v>3011.0</v>
       </c>
       <c r="E180" t="n">
         <v>1.0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>248.0</v>
+        <v>326.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>5540.0</v>
+        <v>5291.0</v>
       </c>
       <c r="D181" t="n">
-        <v>3468.0</v>
+        <v>2929.0</v>
       </c>
       <c r="E181" t="n">
         <v>1.0</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>245.0</v>
+        <v>332.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
       </c>
       <c r="C182" t="n">
-        <v>5649.0</v>
+        <v>5350.0</v>
       </c>
       <c r="D182" t="n">
-        <v>3472.0</v>
+        <v>2867.0</v>
       </c>
       <c r="E182" t="n">
         <v>1.0</v>
@@ -3151,16 +3151,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>270.0</v>
+        <v>345.0</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>5719.0</v>
+        <v>5470.0</v>
       </c>
       <c r="D183" t="n">
-        <v>3352.0</v>
+        <v>2774.0</v>
       </c>
       <c r="E183" t="n">
         <v>1.0</v>
@@ -3168,16 +3168,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>273.0</v>
+        <v>365.0</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5841.0</v>
+        <v>5296.0</v>
       </c>
       <c r="D184" t="n">
-        <v>3328.0</v>
+        <v>2520.0</v>
       </c>
       <c r="E184" t="n">
         <v>1.0</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>292.0</v>
+        <v>370.0</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>5960.0</v>
+        <v>5117.0</v>
       </c>
       <c r="D185" t="n">
-        <v>3207.0</v>
+        <v>2409.0</v>
       </c>
       <c r="E185" t="n">
         <v>1.0</v>
@@ -3202,16 +3202,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>308.0</v>
+        <v>371.0</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>5821.0</v>
+        <v>4973.0</v>
       </c>
       <c r="D186" t="n">
-        <v>3086.0</v>
+        <v>2406.0</v>
       </c>
       <c r="E186" t="n">
         <v>1.0</v>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>324.0</v>
+        <v>343.0</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5930.0</v>
+        <v>4929.0</v>
       </c>
       <c r="D187" t="n">
-        <v>2948.0</v>
+        <v>2803.0</v>
       </c>
       <c r="E187" t="n">
         <v>1.0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>340.0</v>
+        <v>335.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>5881.0</v>
+        <v>4898.0</v>
       </c>
       <c r="D188" t="n">
-        <v>2817.0</v>
+        <v>2840.0</v>
       </c>
       <c r="E188" t="n">
         <v>1.0</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>344.0</v>
+        <v>329.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>5963.0</v>
+        <v>4831.0</v>
       </c>
       <c r="D189" t="n">
-        <v>2789.0</v>
+        <v>2917.0</v>
       </c>
       <c r="E189" t="n">
         <v>1.0</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>334.0</v>
+        <v>349.0</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
       </c>
       <c r="C190" t="n">
-        <v>6044.0</v>
+        <v>4763.0</v>
       </c>
       <c r="D190" t="n">
-        <v>2848.0</v>
+        <v>2720.0</v>
       </c>
       <c r="E190" t="n">
         <v>1.0</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>321.0</v>
+        <v>355.0</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
       </c>
       <c r="C191" t="n">
-        <v>6190.0</v>
+        <v>4584.0</v>
       </c>
       <c r="D191" t="n">
-        <v>2985.0</v>
+        <v>2643.0</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>305.0</v>
+        <v>375.0</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>6204.0</v>
+        <v>4612.0</v>
       </c>
       <c r="D192" t="n">
-        <v>3099.0</v>
+        <v>2341.0</v>
       </c>
       <c r="E192" t="n">
         <v>1.0</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>303.0</v>
+        <v>372.0</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>6113.0</v>
+        <v>4488.0</v>
       </c>
       <c r="D193" t="n">
-        <v>3101.0</v>
+        <v>2378.0</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -3338,16 +3338,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>282.0</v>
+        <v>441.0</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>6050.0</v>
+        <v>4056.0</v>
       </c>
       <c r="D194" t="n">
-        <v>3242.0</v>
+        <v>1564.0</v>
       </c>
       <c r="E194" t="n">
         <v>1.0</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>258.0</v>
+        <v>411.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>5987.0</v>
+        <v>4012.0</v>
       </c>
       <c r="D195" t="n">
-        <v>3402.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E195" t="n">
         <v>1.0</v>
@@ -3372,16 +3372,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>250.0</v>
+        <v>385.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>5796.0</v>
+        <v>4174.0</v>
       </c>
       <c r="D196" t="n">
-        <v>3459.0</v>
+        <v>2190.0</v>
       </c>
       <c r="E196" t="n">
         <v>1.0</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>234.0</v>
+        <v>360.0</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>5887.0</v>
+        <v>4476.0</v>
       </c>
       <c r="D197" t="n">
-        <v>3508.0</v>
+        <v>2555.0</v>
       </c>
       <c r="E197" t="n">
         <v>1.0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>212.0</v>
+        <v>320.0</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
       </c>
       <c r="C198" t="n">
-        <v>5965.0</v>
+        <v>4458.0</v>
       </c>
       <c r="D198" t="n">
-        <v>3624.0</v>
+        <v>3007.0</v>
       </c>
       <c r="E198" t="n">
         <v>1.0</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>201.0</v>
+        <v>301.0</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>6069.0</v>
+        <v>4537.0</v>
       </c>
       <c r="D199" t="n">
-        <v>3695.0</v>
+        <v>3143.0</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>226.0</v>
+        <v>327.0</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>6140.0</v>
+        <v>4196.0</v>
       </c>
       <c r="D200" t="n">
-        <v>3558.0</v>
+        <v>2929.0</v>
       </c>
       <c r="E200" t="n">
         <v>1.0</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>257.0</v>
+        <v>293.0</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>6148.0</v>
+        <v>4252.0</v>
       </c>
       <c r="D201" t="n">
-        <v>3413.0</v>
+        <v>3206.0</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -3474,16 +3474,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>6235.0</v>
+        <v>4364.0</v>
       </c>
       <c r="D202" t="n">
-        <v>3471.0</v>
+        <v>3362.0</v>
       </c>
       <c r="E202" t="n">
         <v>1.0</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>254.0</v>
+        <v>268.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>6265.0</v>
+        <v>4857.0</v>
       </c>
       <c r="D203" t="n">
-        <v>3426.0</v>
+        <v>3359.0</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>277.0</v>
+        <v>235.0</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>6360.0</v>
+        <v>4694.0</v>
       </c>
       <c r="D204" t="n">
-        <v>3301.0</v>
+        <v>3502.0</v>
       </c>
       <c r="E204" t="n">
         <v>1.0</v>
@@ -3525,16 +3525,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>294.0</v>
+        <v>229.0</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>6402.0</v>
+        <v>4232.0</v>
       </c>
       <c r="D205" t="n">
-        <v>3190.0</v>
+        <v>3551.0</v>
       </c>
       <c r="E205" t="n">
         <v>1.0</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>300.0</v>
+        <v>184.0</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
       </c>
       <c r="C206" t="n">
-        <v>6518.0</v>
+        <v>4293.0</v>
       </c>
       <c r="D206" t="n">
-        <v>3165.0</v>
+        <v>3788.0</v>
       </c>
       <c r="E206" t="n">
         <v>1.0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>265.0</v>
+        <v>173.0</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
       </c>
       <c r="C207" t="n">
-        <v>6570.0</v>
+        <v>3824.0</v>
       </c>
       <c r="D207" t="n">
-        <v>3371.0</v>
+        <v>3838.0</v>
       </c>
       <c r="E207" t="n">
         <v>1.0</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>261.0</v>
+        <v>139.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>6623.0</v>
+        <v>3396.0</v>
       </c>
       <c r="D208" t="n">
-        <v>3389.0</v>
+        <v>3990.0</v>
       </c>
       <c r="E208" t="n">
         <v>1.0</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.0</v>
+        <v>157.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>6713.0</v>
+        <v>3108.0</v>
       </c>
       <c r="D209" t="n">
-        <v>3488.0</v>
+        <v>3908.0</v>
       </c>
       <c r="E209" t="n">
         <v>1.0</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>286.0</v>
+        <v>117.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>6731.0</v>
+        <v>2906.0</v>
       </c>
       <c r="D210" t="n">
-        <v>3234.0</v>
+        <v>4131.0</v>
       </c>
       <c r="E210" t="n">
         <v>1.0</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>296.0</v>
+        <v>69.0</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>6656.0</v>
+        <v>3832.0</v>
       </c>
       <c r="D211" t="n">
-        <v>3181.0</v>
+        <v>4410.0</v>
       </c>
       <c r="E211" t="n">
         <v>1.0</v>
@@ -3644,16 +3644,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>315.0</v>
+        <v>98.0</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>6881.0</v>
+        <v>3950.0</v>
       </c>
       <c r="D212" t="n">
-        <v>3029.0</v>
+        <v>4215.0</v>
       </c>
       <c r="E212" t="n">
         <v>1.0</v>
@@ -3661,16 +3661,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>275.0</v>
+        <v>95.0</v>
       </c>
       <c r="B213" t="n">
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>7076.0</v>
+        <v>4217.0</v>
       </c>
       <c r="D213" t="n">
-        <v>3302.0</v>
+        <v>4224.0</v>
       </c>
       <c r="E213" t="n">
         <v>1.0</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>283.0</v>
+        <v>142.0</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>7082.0</v>
+        <v>4342.0</v>
       </c>
       <c r="D214" t="n">
-        <v>3235.0</v>
+        <v>3966.0</v>
       </c>
       <c r="E214" t="n">
         <v>1.0</v>
@@ -3695,16 +3695,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>309.0</v>
+        <v>121.0</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>7131.0</v>
+        <v>4427.0</v>
       </c>
       <c r="D215" t="n">
-        <v>3081.0</v>
+        <v>4109.0</v>
       </c>
       <c r="E215" t="n">
         <v>1.0</v>
@@ -3712,16 +3712,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>322.0</v>
+        <v>88.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>7055.0</v>
+        <v>4354.0</v>
       </c>
       <c r="D216" t="n">
-        <v>2981.0</v>
+        <v>4262.0</v>
       </c>
       <c r="E216" t="n">
         <v>1.0</v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>338.0</v>
+        <v>61.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
       </c>
       <c r="C217" t="n">
-        <v>7125.0</v>
+        <v>4602.0</v>
       </c>
       <c r="D217" t="n">
-        <v>2823.0</v>
+        <v>4478.0</v>
       </c>
       <c r="E217" t="n">
         <v>1.0</v>
@@ -3746,16 +3746,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>352.0</v>
+        <v>62.0</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>6848.0</v>
+        <v>4606.0</v>
       </c>
       <c r="D218" t="n">
-        <v>2712.0</v>
+        <v>4468.0</v>
       </c>
       <c r="E218" t="n">
         <v>1.0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>348.0</v>
+        <v>116.0</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>6766.0</v>
+        <v>4871.0</v>
       </c>
       <c r="D219" t="n">
-        <v>2732.0</v>
+        <v>4132.0</v>
       </c>
       <c r="E219" t="n">
         <v>1.0</v>
@@ -3780,16 +3780,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>328.0</v>
+        <v>122.0</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>6617.0</v>
+        <v>4679.0</v>
       </c>
       <c r="D220" t="n">
-        <v>2928.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E220" t="n">
         <v>1.0</v>
@@ -3797,16 +3797,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>312.0</v>
+        <v>127.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>6468.0</v>
+        <v>4634.0</v>
       </c>
       <c r="D221" t="n">
-        <v>3050.0</v>
+        <v>4054.0</v>
       </c>
       <c r="E221" t="n">
         <v>1.0</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>319.0</v>
+        <v>128.0</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>6387.0</v>
+        <v>4607.0</v>
       </c>
       <c r="D222" t="n">
-        <v>3008.0</v>
+        <v>4049.0</v>
       </c>
       <c r="E222" t="n">
         <v>1.0</v>
@@ -3831,16 +3831,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>339.0</v>
+        <v>137.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>6422.0</v>
+        <v>4655.0</v>
       </c>
       <c r="D223" t="n">
-        <v>2820.0</v>
+        <v>3992.0</v>
       </c>
       <c r="E223" t="n">
         <v>1.0</v>
@@ -3848,16 +3848,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>359.0</v>
+        <v>171.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>6597.0</v>
+        <v>4496.0</v>
       </c>
       <c r="D224" t="n">
-        <v>2563.0</v>
+        <v>3844.0</v>
       </c>
       <c r="E224" t="n">
         <v>1.0</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>367.0</v>
+        <v>172.0</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>6547.0</v>
+        <v>4574.0</v>
       </c>
       <c r="D225" t="n">
-        <v>2506.0</v>
+        <v>3843.0</v>
       </c>
       <c r="E225" t="n">
         <v>1.0</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>379.0</v>
+        <v>165.0</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>6686.0</v>
+        <v>4694.0</v>
       </c>
       <c r="D226" t="n">
-        <v>2312.0</v>
+        <v>3877.0</v>
       </c>
       <c r="E226" t="n">
         <v>1.0</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>364.0</v>
+        <v>152.0</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>6800.0</v>
+        <v>4806.0</v>
       </c>
       <c r="D227" t="n">
-        <v>2532.0</v>
+        <v>3914.0</v>
       </c>
       <c r="E227" t="n">
         <v>1.0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>357.0</v>
+        <v>202.0</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>7049.0</v>
+        <v>4780.0</v>
       </c>
       <c r="D228" t="n">
-        <v>2570.0</v>
+        <v>3694.0</v>
       </c>
       <c r="E228" t="n">
         <v>1.0</v>
@@ -3933,16 +3933,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>366.0</v>
+        <v>213.0</v>
       </c>
       <c r="B229" t="n">
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>7104.0</v>
+        <v>4965.0</v>
       </c>
       <c r="D229" t="n">
-        <v>2510.0</v>
+        <v>3622.0</v>
       </c>
       <c r="E229" t="n">
         <v>1.0</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>376.0</v>
+        <v>223.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>7015.0</v>
+        <v>5111.0</v>
       </c>
       <c r="D230" t="n">
-        <v>2333.0</v>
+        <v>3569.0</v>
       </c>
       <c r="E230" t="n">
         <v>1.0</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>382.0</v>
+        <v>232.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>7087.0</v>
+        <v>5160.0</v>
       </c>
       <c r="D231" t="n">
-        <v>2274.0</v>
+        <v>3517.0</v>
       </c>
       <c r="E231" t="n">
         <v>1.0</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>392.0</v>
+        <v>195.0</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
       </c>
       <c r="C232" t="n">
-        <v>6885.0</v>
+        <v>5207.0</v>
       </c>
       <c r="D232" t="n">
-        <v>2138.0</v>
+        <v>3742.0</v>
       </c>
       <c r="E232" t="n">
         <v>1.0</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>402.0</v>
+        <v>227.0</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
       </c>
       <c r="C233" t="n">
-        <v>7152.0</v>
+        <v>5315.0</v>
       </c>
       <c r="D233" t="n">
-        <v>2000.0</v>
+        <v>3557.0</v>
       </c>
       <c r="E233" t="n">
         <v>1.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>417.0</v>
+        <v>228.0</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>7004.0</v>
+        <v>5316.0</v>
       </c>
       <c r="D234" t="n">
-        <v>1805.0</v>
+        <v>3554.0</v>
       </c>
       <c r="E234" t="n">
         <v>1.0</v>
@@ -4035,16 +4035,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>419.0</v>
+        <v>249.0</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>6826.0</v>
+        <v>5400.0</v>
       </c>
       <c r="D235" t="n">
-        <v>1774.0</v>
+        <v>3461.0</v>
       </c>
       <c r="E235" t="n">
         <v>1.0</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>410.0</v>
+        <v>248.0</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>6803.0</v>
+        <v>5540.0</v>
       </c>
       <c r="D236" t="n">
-        <v>1886.0</v>
+        <v>3468.0</v>
       </c>
       <c r="E236" t="n">
         <v>1.0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>407.0</v>
+        <v>245.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>6493.0</v>
+        <v>5649.0</v>
       </c>
       <c r="D237" t="n">
-        <v>1931.0</v>
+        <v>3472.0</v>
       </c>
       <c r="E237" t="n">
         <v>1.0</v>
@@ -4086,16 +4086,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>380.0</v>
+        <v>208.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>6307.0</v>
+        <v>5417.0</v>
       </c>
       <c r="D238" t="n">
-        <v>2295.0</v>
+        <v>3673.0</v>
       </c>
       <c r="E238" t="n">
         <v>1.0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>374.0</v>
+        <v>187.0</v>
       </c>
       <c r="B239" t="n">
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>6007.0</v>
+        <v>5541.0</v>
       </c>
       <c r="D239" t="n">
-        <v>2359.0</v>
+        <v>3769.0</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>400.0</v>
+        <v>182.0</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>6139.0</v>
+        <v>5457.0</v>
       </c>
       <c r="D240" t="n">
-        <v>2032.0</v>
+        <v>3808.0</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>418.0</v>
+        <v>159.0</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>6252.0</v>
+        <v>5427.0</v>
       </c>
       <c r="D241" t="n">
-        <v>1795.0</v>
+        <v>3894.0</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>447.0</v>
+        <v>146.0</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
       </c>
       <c r="C242" t="n">
-        <v>6621.0</v>
+        <v>5336.0</v>
       </c>
       <c r="D242" t="n">
-        <v>1513.0</v>
+        <v>3943.0</v>
       </c>
       <c r="E242" t="n">
         <v>1.0</v>
@@ -4171,16 +4171,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>433.0</v>
+        <v>136.0</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
       </c>
       <c r="C243" t="n">
-        <v>6496.0</v>
+        <v>5597.0</v>
       </c>
       <c r="D243" t="n">
-        <v>1678.0</v>
+        <v>3993.0</v>
       </c>
       <c r="E243" t="n">
         <v>1.0</v>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>461.0</v>
+        <v>131.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>6258.0</v>
+        <v>5543.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1354.0</v>
+        <v>4042.0</v>
       </c>
       <c r="E244" t="n">
         <v>1.0</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>477.0</v>
+        <v>101.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>6136.0</v>
+        <v>5168.0</v>
       </c>
       <c r="D245" t="n">
-        <v>1243.0</v>
+        <v>4208.0</v>
       </c>
       <c r="E245" t="n">
         <v>1.0</v>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>470.0</v>
+        <v>92.0</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
       </c>
       <c r="C246" t="n">
-        <v>6359.0</v>
+        <v>5356.0</v>
       </c>
       <c r="D246" t="n">
-        <v>1298.0</v>
+        <v>4241.0</v>
       </c>
       <c r="E246" t="n">
         <v>1.0</v>
@@ -4239,16 +4239,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>469.0</v>
+        <v>76.0</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
       </c>
       <c r="C247" t="n">
-        <v>6379.0</v>
+        <v>5385.0</v>
       </c>
       <c r="D247" t="n">
-        <v>1302.0</v>
+        <v>4318.0</v>
       </c>
       <c r="E247" t="n">
         <v>1.0</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>468.0</v>
+        <v>41.0</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
       </c>
       <c r="C248" t="n">
-        <v>6378.0</v>
+        <v>5259.0</v>
       </c>
       <c r="D248" t="n">
-        <v>1314.0</v>
+        <v>4751.0</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>463.0</v>
+        <v>50.0</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
       </c>
       <c r="C249" t="n">
-        <v>6494.0</v>
+        <v>5387.0</v>
       </c>
       <c r="D249" t="n">
-        <v>1347.0</v>
+        <v>4623.0</v>
       </c>
       <c r="E249" t="n">
         <v>1.0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>445.0</v>
+        <v>56.0</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>6651.0</v>
+        <v>5685.0</v>
       </c>
       <c r="D250" t="n">
-        <v>1534.0</v>
+        <v>4546.0</v>
       </c>
       <c r="E250" t="n">
         <v>1.0</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>435.0</v>
+        <v>103.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>6765.0</v>
+        <v>5871.0</v>
       </c>
       <c r="D251" t="n">
-        <v>1663.0</v>
+        <v>4202.0</v>
       </c>
       <c r="E251" t="n">
         <v>1.0</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>437.0</v>
+        <v>120.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>6854.0</v>
+        <v>6008.0</v>
       </c>
       <c r="D252" t="n">
-        <v>1640.0</v>
+        <v>4117.0</v>
       </c>
       <c r="E252" t="n">
         <v>1.0</v>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>430.0</v>
+        <v>123.0</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>6932.0</v>
+        <v>5955.0</v>
       </c>
       <c r="D253" t="n">
-        <v>1683.0</v>
+        <v>4081.0</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>427.0</v>
+        <v>170.0</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>7035.0</v>
+        <v>5706.0</v>
       </c>
       <c r="D254" t="n">
-        <v>1733.0</v>
+        <v>3844.0</v>
       </c>
       <c r="E254" t="n">
         <v>1.0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>424.0</v>
+        <v>175.0</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
       </c>
       <c r="C255" t="n">
-        <v>7046.0</v>
+        <v>5720.0</v>
       </c>
       <c r="D255" t="n">
-        <v>1757.0</v>
+        <v>3823.0</v>
       </c>
       <c r="E255" t="n">
         <v>1.0</v>
@@ -4392,16 +4392,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>420.0</v>
+        <v>183.0</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
       </c>
       <c r="C256" t="n">
-        <v>7218.0</v>
+        <v>5671.0</v>
       </c>
       <c r="D256" t="n">
-        <v>1773.0</v>
+        <v>3807.0</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -4409,16 +4409,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>423.0</v>
+        <v>188.0</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>7240.0</v>
+        <v>5621.0</v>
       </c>
       <c r="D257" t="n">
-        <v>1762.0</v>
+        <v>3768.0</v>
       </c>
       <c r="E257" t="n">
         <v>1.0</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>426.0</v>
+        <v>194.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>7314.0</v>
+        <v>5678.0</v>
       </c>
       <c r="D258" t="n">
-        <v>1739.0</v>
+        <v>3742.0</v>
       </c>
       <c r="E258" t="n">
         <v>1.0</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>405.0</v>
+        <v>204.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
       </c>
       <c r="C259" t="n">
-        <v>7352.0</v>
+        <v>5751.0</v>
       </c>
       <c r="D259" t="n">
-        <v>1952.0</v>
+        <v>3681.0</v>
       </c>
       <c r="E259" t="n">
         <v>1.0</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>404.0</v>
+        <v>181.0</v>
       </c>
       <c r="B260" t="n">
         <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>7416.0</v>
+        <v>5778.0</v>
       </c>
       <c r="D260" t="n">
-        <v>1953.0</v>
+        <v>3813.0</v>
       </c>
       <c r="E260" t="n">
         <v>1.0</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>388.0</v>
+        <v>174.0</v>
       </c>
       <c r="B261" t="n">
         <v>0.0</v>
       </c>
       <c r="C261" t="n">
-        <v>7315.0</v>
+        <v>5803.0</v>
       </c>
       <c r="D261" t="n">
-        <v>2181.0</v>
+        <v>3824.0</v>
       </c>
       <c r="E261" t="n">
         <v>1.0</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>391.0</v>
+        <v>154.0</v>
       </c>
       <c r="B262" t="n">
         <v>0.0</v>
       </c>
       <c r="C262" t="n">
-        <v>7418.0</v>
+        <v>5926.0</v>
       </c>
       <c r="D262" t="n">
-        <v>2139.0</v>
+        <v>3912.0</v>
       </c>
       <c r="E262" t="n">
         <v>1.0</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>408.0</v>
+        <v>147.0</v>
       </c>
       <c r="B263" t="n">
         <v>0.0</v>
       </c>
       <c r="C263" t="n">
-        <v>7905.0</v>
+        <v>5964.0</v>
       </c>
       <c r="D263" t="n">
-        <v>1921.0</v>
+        <v>3935.0</v>
       </c>
       <c r="E263" t="n">
         <v>1.0</v>
@@ -4528,16 +4528,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>399.0</v>
+        <v>177.0</v>
       </c>
       <c r="B264" t="n">
         <v>0.0</v>
       </c>
       <c r="C264" t="n">
-        <v>8080.0</v>
+        <v>6120.0</v>
       </c>
       <c r="D264" t="n">
-        <v>2039.0</v>
+        <v>3821.0</v>
       </c>
       <c r="E264" t="n">
         <v>1.0</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>409.0</v>
+        <v>162.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>8229.0</v>
+        <v>6150.0</v>
       </c>
       <c r="D265" t="n">
-        <v>1905.0</v>
+        <v>3888.0</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -4562,16 +4562,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>413.0</v>
+        <v>134.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>8101.0</v>
+        <v>6259.0</v>
       </c>
       <c r="D266" t="n">
-        <v>1876.0</v>
+        <v>4030.0</v>
       </c>
       <c r="E266" t="n">
         <v>1.0</v>
@@ -4579,16 +4579,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>415.0</v>
+        <v>86.0</v>
       </c>
       <c r="B267" t="n">
         <v>0.0</v>
       </c>
       <c r="C267" t="n">
-        <v>8063.0</v>
+        <v>6241.0</v>
       </c>
       <c r="D267" t="n">
-        <v>1860.0</v>
+        <v>4268.0</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>414.0</v>
+        <v>78.0</v>
       </c>
       <c r="B268" t="n">
         <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>7989.0</v>
+        <v>6304.0</v>
       </c>
       <c r="D268" t="n">
-        <v>1876.0</v>
+        <v>4294.0</v>
       </c>
       <c r="E268" t="n">
         <v>1.0</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>416.0</v>
+        <v>75.0</v>
       </c>
       <c r="B269" t="n">
         <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>8080.0</v>
+        <v>6237.0</v>
       </c>
       <c r="D269" t="n">
-        <v>1835.0</v>
+        <v>4332.0</v>
       </c>
       <c r="E269" t="n">
         <v>1.0</v>
@@ -4630,16 +4630,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>425.0</v>
+        <v>73.0</v>
       </c>
       <c r="B270" t="n">
         <v>0.0</v>
       </c>
       <c r="C270" t="n">
-        <v>8098.0</v>
+        <v>6139.0</v>
       </c>
       <c r="D270" t="n">
-        <v>1746.0</v>
+        <v>4369.0</v>
       </c>
       <c r="E270" t="n">
         <v>1.0</v>
@@ -4647,16 +4647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>429.0</v>
+        <v>67.0</v>
       </c>
       <c r="B271" t="n">
         <v>0.0</v>
       </c>
       <c r="C271" t="n">
-        <v>8184.0</v>
+        <v>6058.0</v>
       </c>
       <c r="D271" t="n">
-        <v>1685.0</v>
+        <v>4426.0</v>
       </c>
       <c r="E271" t="n">
         <v>1.0</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>434.0</v>
+        <v>91.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>8525.0</v>
+        <v>6051.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1664.0</v>
+        <v>4246.0</v>
       </c>
       <c r="E272" t="n">
         <v>1.0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>448.0</v>
+        <v>109.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
       </c>
       <c r="C273" t="n">
-        <v>8594.0</v>
+        <v>6123.0</v>
       </c>
       <c r="D273" t="n">
-        <v>1510.0</v>
+        <v>4167.0</v>
       </c>
       <c r="E273" t="n">
         <v>1.0</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>451.0</v>
+        <v>119.0</v>
       </c>
       <c r="B274" t="n">
         <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>8605.0</v>
+        <v>6312.0</v>
       </c>
       <c r="D274" t="n">
-        <v>1479.0</v>
+        <v>4126.0</v>
       </c>
       <c r="E274" t="n">
         <v>1.0</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>460.0</v>
+        <v>110.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
       </c>
       <c r="C275" t="n">
-        <v>8292.0</v>
+        <v>6450.0</v>
       </c>
       <c r="D275" t="n">
-        <v>1383.0</v>
+        <v>4160.0</v>
       </c>
       <c r="E275" t="n">
         <v>1.0</v>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>453.0</v>
+        <v>118.0</v>
       </c>
       <c r="B276" t="n">
         <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>8228.0</v>
+        <v>6488.0</v>
       </c>
       <c r="D276" t="n">
-        <v>1471.0</v>
+        <v>4128.0</v>
       </c>
       <c r="E276" t="n">
         <v>1.0</v>
@@ -4749,16 +4749,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>444.0</v>
+        <v>135.0</v>
       </c>
       <c r="B277" t="n">
         <v>0.0</v>
       </c>
       <c r="C277" t="n">
-        <v>8038.0</v>
+        <v>6366.0</v>
       </c>
       <c r="D277" t="n">
-        <v>1535.0</v>
+        <v>4002.0</v>
       </c>
       <c r="E277" t="n">
         <v>1.0</v>
@@ -4766,16 +4766,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>439.0</v>
+        <v>156.0</v>
       </c>
       <c r="B278" t="n">
         <v>0.0</v>
       </c>
       <c r="C278" t="n">
-        <v>7973.0</v>
+        <v>6333.0</v>
       </c>
       <c r="D278" t="n">
-        <v>1606.0</v>
+        <v>3909.0</v>
       </c>
       <c r="E278" t="n">
         <v>1.0</v>
@@ -4783,16 +4783,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>436.0</v>
+        <v>166.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>7985.0</v>
+        <v>6340.0</v>
       </c>
       <c r="D279" t="n">
-        <v>1657.0</v>
+        <v>3870.0</v>
       </c>
       <c r="E279" t="n">
         <v>1.0</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>438.0</v>
+        <v>167.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
       </c>
       <c r="C280" t="n">
-        <v>7926.0</v>
+        <v>6425.0</v>
       </c>
       <c r="D280" t="n">
-        <v>1627.0</v>
+        <v>3867.0</v>
       </c>
       <c r="E280" t="n">
         <v>1.0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>403.0</v>
+        <v>179.0</v>
       </c>
       <c r="B281" t="n">
         <v>0.0</v>
       </c>
       <c r="C281" t="n">
-        <v>7822.0</v>
+        <v>6376.0</v>
       </c>
       <c r="D281" t="n">
-        <v>1992.0</v>
+        <v>3819.0</v>
       </c>
       <c r="E281" t="n">
         <v>1.0</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>397.0</v>
+        <v>190.0</v>
       </c>
       <c r="B282" t="n">
         <v>0.0</v>
       </c>
       <c r="C282" t="n">
-        <v>7643.0</v>
+        <v>6327.0</v>
       </c>
       <c r="D282" t="n">
-        <v>2048.0</v>
+        <v>3745.0</v>
       </c>
       <c r="E282" t="n">
         <v>1.0</v>
@@ -4851,16 +4851,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>387.0</v>
+        <v>205.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>7856.0</v>
+        <v>6365.0</v>
       </c>
       <c r="D283" t="n">
-        <v>2181.0</v>
+        <v>3679.0</v>
       </c>
       <c r="E283" t="n">
         <v>1.0</v>
@@ -4868,16 +4868,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>358.0</v>
+        <v>207.0</v>
       </c>
       <c r="B284" t="n">
         <v>0.0</v>
       </c>
       <c r="C284" t="n">
-        <v>7753.0</v>
+        <v>6317.0</v>
       </c>
       <c r="D284" t="n">
-        <v>2564.0</v>
+        <v>3673.0</v>
       </c>
       <c r="E284" t="n">
         <v>1.0</v>
@@ -4885,16 +4885,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>381.0</v>
+        <v>200.0</v>
       </c>
       <c r="B285" t="n">
         <v>0.0</v>
       </c>
       <c r="C285" t="n">
-        <v>7448.0</v>
+        <v>6207.0</v>
       </c>
       <c r="D285" t="n">
-        <v>2291.0</v>
+        <v>3700.0</v>
       </c>
       <c r="E285" t="n">
         <v>1.0</v>
@@ -4902,16 +4902,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>373.0</v>
+        <v>226.0</v>
       </c>
       <c r="B286" t="n">
         <v>0.0</v>
       </c>
       <c r="C286" t="n">
-        <v>7351.0</v>
+        <v>6140.0</v>
       </c>
       <c r="D286" t="n">
-        <v>2376.0</v>
+        <v>3558.0</v>
       </c>
       <c r="E286" t="n">
         <v>1.0</v>
@@ -4919,16 +4919,16 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>368.0</v>
+        <v>201.0</v>
       </c>
       <c r="B287" t="n">
         <v>0.0</v>
       </c>
       <c r="C287" t="n">
-        <v>7267.0</v>
+        <v>6069.0</v>
       </c>
       <c r="D287" t="n">
-        <v>2466.0</v>
+        <v>3695.0</v>
       </c>
       <c r="E287" t="n">
         <v>1.0</v>
@@ -4936,16 +4936,16 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>362.0</v>
+        <v>212.0</v>
       </c>
       <c r="B288" t="n">
         <v>0.0</v>
       </c>
       <c r="C288" t="n">
-        <v>7304.0</v>
+        <v>5965.0</v>
       </c>
       <c r="D288" t="n">
-        <v>2550.0</v>
+        <v>3624.0</v>
       </c>
       <c r="E288" t="n">
         <v>1.0</v>
@@ -4953,16 +4953,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>351.0</v>
+        <v>234.0</v>
       </c>
       <c r="B289" t="n">
         <v>0.0</v>
       </c>
       <c r="C289" t="n">
-        <v>7309.0</v>
+        <v>5887.0</v>
       </c>
       <c r="D289" t="n">
-        <v>2717.0</v>
+        <v>3508.0</v>
       </c>
       <c r="E289" t="n">
         <v>1.0</v>
@@ -4970,16 +4970,16 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>346.0</v>
+        <v>258.0</v>
       </c>
       <c r="B290" t="n">
         <v>0.0</v>
       </c>
       <c r="C290" t="n">
-        <v>7458.0</v>
+        <v>5987.0</v>
       </c>
       <c r="D290" t="n">
-        <v>2741.0</v>
+        <v>3402.0</v>
       </c>
       <c r="E290" t="n">
         <v>1.0</v>
@@ -4987,16 +4987,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>325.0</v>
+        <v>257.0</v>
       </c>
       <c r="B291" t="n">
         <v>0.0</v>
       </c>
       <c r="C291" t="n">
-        <v>7543.0</v>
+        <v>6148.0</v>
       </c>
       <c r="D291" t="n">
-        <v>2929.0</v>
+        <v>3413.0</v>
       </c>
       <c r="E291" t="n">
         <v>1.0</v>
@@ -5004,16 +5004,16 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>333.0</v>
+        <v>246.0</v>
       </c>
       <c r="B292" t="n">
         <v>0.0</v>
       </c>
       <c r="C292" t="n">
-        <v>7346.0</v>
+        <v>6235.0</v>
       </c>
       <c r="D292" t="n">
-        <v>2858.0</v>
+        <v>3471.0</v>
       </c>
       <c r="E292" t="n">
         <v>1.0</v>
@@ -5021,16 +5021,16 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>323.0</v>
+        <v>254.0</v>
       </c>
       <c r="B293" t="n">
         <v>0.0</v>
       </c>
       <c r="C293" t="n">
-        <v>7238.0</v>
+        <v>6265.0</v>
       </c>
       <c r="D293" t="n">
-        <v>2957.0</v>
+        <v>3426.0</v>
       </c>
       <c r="E293" t="n">
         <v>1.0</v>
@@ -5038,16 +5038,16 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>298.0</v>
+        <v>277.0</v>
       </c>
       <c r="B294" t="n">
         <v>0.0</v>
       </c>
       <c r="C294" t="n">
-        <v>7434.0</v>
+        <v>6360.0</v>
       </c>
       <c r="D294" t="n">
-        <v>3173.0</v>
+        <v>3301.0</v>
       </c>
       <c r="E294" t="n">
         <v>1.0</v>
@@ -5055,16 +5055,16 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>304.0</v>
+        <v>294.0</v>
       </c>
       <c r="B295" t="n">
         <v>0.0</v>
       </c>
       <c r="C295" t="n">
-        <v>7440.0</v>
+        <v>6402.0</v>
       </c>
       <c r="D295" t="n">
-        <v>3100.0</v>
+        <v>3190.0</v>
       </c>
       <c r="E295" t="n">
         <v>1.0</v>
@@ -5072,16 +5072,16 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>307.0</v>
+        <v>300.0</v>
       </c>
       <c r="B296" t="n">
         <v>0.0</v>
       </c>
       <c r="C296" t="n">
-        <v>7503.0</v>
+        <v>6518.0</v>
       </c>
       <c r="D296" t="n">
-        <v>3086.0</v>
+        <v>3165.0</v>
       </c>
       <c r="E296" t="n">
         <v>1.0</v>
@@ -5089,16 +5089,16 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>297.0</v>
+        <v>296.0</v>
       </c>
       <c r="B297" t="n">
         <v>0.0</v>
       </c>
       <c r="C297" t="n">
-        <v>7532.0</v>
+        <v>6656.0</v>
       </c>
       <c r="D297" t="n">
-        <v>3175.0</v>
+        <v>3181.0</v>
       </c>
       <c r="E297" t="n">
         <v>1.0</v>
@@ -5106,16 +5106,16 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>287.0</v>
+        <v>286.0</v>
       </c>
       <c r="B298" t="n">
         <v>0.0</v>
       </c>
       <c r="C298" t="n">
-        <v>7453.0</v>
+        <v>6731.0</v>
       </c>
       <c r="D298" t="n">
-        <v>3229.0</v>
+        <v>3234.0</v>
       </c>
       <c r="E298" t="n">
         <v>1.0</v>
@@ -5123,16 +5123,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>289.0</v>
+        <v>265.0</v>
       </c>
       <c r="B299" t="n">
         <v>0.0</v>
       </c>
       <c r="C299" t="n">
-        <v>7299.0</v>
+        <v>6570.0</v>
       </c>
       <c r="D299" t="n">
-        <v>3219.0</v>
+        <v>3371.0</v>
       </c>
       <c r="E299" t="n">
         <v>1.0</v>
@@ -5140,16 +5140,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>267.0</v>
+        <v>261.0</v>
       </c>
       <c r="B300" t="n">
         <v>0.0</v>
       </c>
       <c r="C300" t="n">
-        <v>7316.0</v>
+        <v>6623.0</v>
       </c>
       <c r="D300" t="n">
-        <v>3360.0</v>
+        <v>3389.0</v>
       </c>
       <c r="E300" t="n">
         <v>1.0</v>
@@ -5157,16 +5157,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>260.0</v>
+        <v>241.0</v>
       </c>
       <c r="B301" t="n">
         <v>0.0</v>
       </c>
       <c r="C301" t="n">
-        <v>7422.0</v>
+        <v>6713.0</v>
       </c>
       <c r="D301" t="n">
-        <v>3390.0</v>
+        <v>3488.0</v>
       </c>
       <c r="E301" t="n">
         <v>1.0</v>
@@ -5174,16 +5174,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>271.0</v>
+        <v>215.0</v>
       </c>
       <c r="B302" t="n">
         <v>0.0</v>
       </c>
       <c r="C302" t="n">
-        <v>7452.0</v>
+        <v>6798.0</v>
       </c>
       <c r="D302" t="n">
-        <v>3339.0</v>
+        <v>3610.0</v>
       </c>
       <c r="E302" t="n">
         <v>1.0</v>
@@ -5191,16 +5191,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>262.0</v>
+        <v>214.0</v>
       </c>
       <c r="B303" t="n">
         <v>0.0</v>
       </c>
       <c r="C303" t="n">
-        <v>7475.0</v>
+        <v>6833.0</v>
       </c>
       <c r="D303" t="n">
-        <v>3388.0</v>
+        <v>3618.0</v>
       </c>
       <c r="E303" t="n">
         <v>1.0</v>
@@ -5208,16 +5208,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>252.0</v>
+        <v>206.0</v>
       </c>
       <c r="B304" t="n">
         <v>0.0</v>
       </c>
       <c r="C304" t="n">
-        <v>7494.0</v>
+        <v>6958.0</v>
       </c>
       <c r="D304" t="n">
-        <v>3430.0</v>
+        <v>3678.0</v>
       </c>
       <c r="E304" t="n">
         <v>1.0</v>
@@ -5225,16 +5225,16 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>269.0</v>
+        <v>193.0</v>
       </c>
       <c r="B305" t="n">
         <v>0.0</v>
       </c>
       <c r="C305" t="n">
-        <v>7533.0</v>
+        <v>6652.0</v>
       </c>
       <c r="D305" t="n">
-        <v>3358.0</v>
+        <v>3742.0</v>
       </c>
       <c r="E305" t="n">
         <v>1.0</v>
@@ -5242,16 +5242,16 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>259.0</v>
+        <v>224.0</v>
       </c>
       <c r="B306" t="n">
         <v>0.0</v>
       </c>
       <c r="C306" t="n">
-        <v>7582.0</v>
+        <v>6453.0</v>
       </c>
       <c r="D306" t="n">
-        <v>3396.0</v>
+        <v>3567.0</v>
       </c>
       <c r="E306" t="n">
         <v>1.0</v>
@@ -5259,16 +5259,16 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>263.0</v>
+        <v>209.0</v>
       </c>
       <c r="B307" t="n">
         <v>0.0</v>
       </c>
       <c r="C307" t="n">
-        <v>7654.0</v>
+        <v>6426.0</v>
       </c>
       <c r="D307" t="n">
-        <v>3377.0</v>
+        <v>3656.0</v>
       </c>
       <c r="E307" t="n">
         <v>1.0</v>
@@ -5276,16 +5276,16 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>276.0</v>
+        <v>198.0</v>
       </c>
       <c r="B308" t="n">
         <v>0.0</v>
       </c>
       <c r="C308" t="n">
-        <v>7657.0</v>
+        <v>6427.0</v>
       </c>
       <c r="D308" t="n">
-        <v>3301.0</v>
+        <v>3717.0</v>
       </c>
       <c r="E308" t="n">
         <v>1.0</v>
@@ -5293,16 +5293,16 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>272.0</v>
+        <v>176.0</v>
       </c>
       <c r="B309" t="n">
         <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>7747.0</v>
+        <v>6454.0</v>
       </c>
       <c r="D309" t="n">
-        <v>3329.0</v>
+        <v>3821.0</v>
       </c>
       <c r="E309" t="n">
         <v>1.0</v>
@@ -5310,16 +5310,16 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>264.0</v>
+        <v>168.0</v>
       </c>
       <c r="B310" t="n">
         <v>0.0</v>
       </c>
       <c r="C310" t="n">
-        <v>7838.0</v>
+        <v>6577.0</v>
       </c>
       <c r="D310" t="n">
-        <v>3375.0</v>
+        <v>3858.0</v>
       </c>
       <c r="E310" t="n">
         <v>1.0</v>
@@ -5327,16 +5327,16 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>291.0</v>
+        <v>150.0</v>
       </c>
       <c r="B311" t="n">
         <v>0.0</v>
       </c>
       <c r="C311" t="n">
-        <v>7861.0</v>
+        <v>6567.0</v>
       </c>
       <c r="D311" t="n">
-        <v>3216.0</v>
+        <v>3922.0</v>
       </c>
       <c r="E311" t="n">
         <v>1.0</v>
@@ -5344,16 +5344,16 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>288.0</v>
+        <v>141.0</v>
       </c>
       <c r="B312" t="n">
         <v>0.0</v>
       </c>
       <c r="C312" t="n">
-        <v>7695.0</v>
+        <v>6537.0</v>
       </c>
       <c r="D312" t="n">
-        <v>3220.0</v>
+        <v>3982.0</v>
       </c>
       <c r="E312" t="n">
         <v>1.0</v>
@@ -5361,16 +5361,16 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>306.0</v>
+        <v>129.0</v>
       </c>
       <c r="B313" t="n">
         <v>0.0</v>
       </c>
       <c r="C313" t="n">
-        <v>7715.0</v>
+        <v>6557.0</v>
       </c>
       <c r="D313" t="n">
-        <v>3086.0</v>
+        <v>4047.0</v>
       </c>
       <c r="E313" t="n">
         <v>1.0</v>
@@ -5378,16 +5378,16 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>342.0</v>
+        <v>140.0</v>
       </c>
       <c r="B314" t="n">
         <v>0.0</v>
       </c>
       <c r="C314" t="n">
-        <v>7851.0</v>
+        <v>6603.0</v>
       </c>
       <c r="D314" t="n">
-        <v>2809.0</v>
+        <v>3982.0</v>
       </c>
       <c r="E314" t="n">
         <v>1.0</v>
@@ -5395,16 +5395,16 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>310.0</v>
+        <v>151.0</v>
       </c>
       <c r="B315" t="n">
         <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>7909.0</v>
+        <v>6602.0</v>
       </c>
       <c r="D315" t="n">
-        <v>3080.0</v>
+        <v>3920.0</v>
       </c>
       <c r="E315" t="n">
         <v>1.0</v>
@@ -5412,16 +5412,16 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>280.0</v>
+        <v>161.0</v>
       </c>
       <c r="B316" t="n">
         <v>0.0</v>
       </c>
       <c r="C316" t="n">
-        <v>7989.0</v>
+        <v>6621.0</v>
       </c>
       <c r="D316" t="n">
-        <v>3271.0</v>
+        <v>3891.0</v>
       </c>
       <c r="E316" t="n">
         <v>1.0</v>
@@ -5429,16 +5429,16 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>255.0</v>
+        <v>169.0</v>
       </c>
       <c r="B317" t="n">
         <v>0.0</v>
       </c>
       <c r="C317" t="n">
-        <v>8001.0</v>
+        <v>6864.0</v>
       </c>
       <c r="D317" t="n">
-        <v>3418.0</v>
+        <v>3854.0</v>
       </c>
       <c r="E317" t="n">
         <v>1.0</v>
@@ -5446,16 +5446,16 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>231.0</v>
+        <v>160.0</v>
       </c>
       <c r="B318" t="n">
         <v>0.0</v>
       </c>
       <c r="C318" t="n">
-        <v>8013.0</v>
+        <v>6862.0</v>
       </c>
       <c r="D318" t="n">
-        <v>3523.0</v>
+        <v>3892.0</v>
       </c>
       <c r="E318" t="n">
         <v>1.0</v>
@@ -5463,16 +5463,16 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>237.0</v>
+        <v>111.0</v>
       </c>
       <c r="B319" t="n">
         <v>0.0</v>
       </c>
       <c r="C319" t="n">
-        <v>7919.0</v>
+        <v>6713.0</v>
       </c>
       <c r="D319" t="n">
-        <v>3496.0</v>
+        <v>4154.0</v>
       </c>
       <c r="E319" t="n">
         <v>1.0</v>
@@ -5480,16 +5480,16 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>221.0</v>
+        <v>105.0</v>
       </c>
       <c r="B320" t="n">
         <v>0.0</v>
       </c>
       <c r="C320" t="n">
-        <v>7906.0</v>
+        <v>6660.0</v>
       </c>
       <c r="D320" t="n">
-        <v>3580.0</v>
+        <v>4193.0</v>
       </c>
       <c r="E320" t="n">
         <v>1.0</v>
@@ -5497,16 +5497,16 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>210.0</v>
+        <v>107.0</v>
       </c>
       <c r="B321" t="n">
         <v>0.0</v>
       </c>
       <c r="C321" t="n">
-        <v>7922.0</v>
+        <v>6607.0</v>
       </c>
       <c r="D321" t="n">
-        <v>3655.0</v>
+        <v>4173.0</v>
       </c>
       <c r="E321" t="n">
         <v>1.0</v>
@@ -5514,16 +5514,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>218.0</v>
+        <v>102.0</v>
       </c>
       <c r="B322" t="n">
         <v>0.0</v>
       </c>
       <c r="C322" t="n">
-        <v>7803.0</v>
+        <v>6524.0</v>
       </c>
       <c r="D322" t="n">
-        <v>3598.0</v>
+        <v>4207.0</v>
       </c>
       <c r="E322" t="n">
         <v>1.0</v>
@@ -5531,16 +5531,16 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>242.0</v>
+        <v>89.0</v>
       </c>
       <c r="B323" t="n">
         <v>0.0</v>
       </c>
       <c r="C323" t="n">
-        <v>7696.0</v>
+        <v>6589.0</v>
       </c>
       <c r="D323" t="n">
-        <v>3486.0</v>
+        <v>4256.0</v>
       </c>
       <c r="E323" t="n">
         <v>1.0</v>
@@ -5548,16 +5548,16 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>236.0</v>
+        <v>84.0</v>
       </c>
       <c r="B324" t="n">
         <v>0.0</v>
       </c>
       <c r="C324" t="n">
-        <v>7633.0</v>
+        <v>6779.0</v>
       </c>
       <c r="D324" t="n">
-        <v>3499.0</v>
+        <v>4273.0</v>
       </c>
       <c r="E324" t="n">
         <v>1.0</v>
@@ -5565,16 +5565,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>216.0</v>
+        <v>80.0</v>
       </c>
       <c r="B325" t="n">
         <v>0.0</v>
       </c>
       <c r="C325" t="n">
-        <v>7667.0</v>
+        <v>6740.0</v>
       </c>
       <c r="D325" t="n">
-        <v>3608.0</v>
+        <v>4282.0</v>
       </c>
       <c r="E325" t="n">
         <v>1.0</v>
@@ -5582,16 +5582,16 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>203.0</v>
+        <v>70.0</v>
       </c>
       <c r="B326" t="n">
         <v>0.0</v>
       </c>
       <c r="C326" t="n">
-        <v>7603.0</v>
+        <v>6670.0</v>
       </c>
       <c r="D326" t="n">
-        <v>3690.0</v>
+        <v>4401.0</v>
       </c>
       <c r="E326" t="n">
         <v>1.0</v>
@@ -5599,16 +5599,16 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>189.0</v>
+        <v>58.0</v>
       </c>
       <c r="B327" t="n">
         <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7750.0</v>
+        <v>6735.0</v>
       </c>
       <c r="D327" t="n">
-        <v>3760.0</v>
+        <v>4509.0</v>
       </c>
       <c r="E327" t="n">
         <v>1.0</v>
@@ -5616,16 +5616,16 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>191.0</v>
+        <v>40.0</v>
       </c>
       <c r="B328" t="n">
         <v>0.0</v>
       </c>
       <c r="C328" t="n">
-        <v>7879.0</v>
+        <v>6806.0</v>
       </c>
       <c r="D328" t="n">
-        <v>3743.0</v>
+        <v>4755.0</v>
       </c>
       <c r="E328" t="n">
         <v>1.0</v>
@@ -5633,16 +5633,16 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>180.0</v>
+        <v>27.0</v>
       </c>
       <c r="B329" t="n">
         <v>0.0</v>
       </c>
       <c r="C329" t="n">
-        <v>7841.0</v>
+        <v>6937.0</v>
       </c>
       <c r="D329" t="n">
-        <v>3818.0</v>
+        <v>4917.0</v>
       </c>
       <c r="E329" t="n">
         <v>1.0</v>
@@ -5650,16 +5650,16 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>178.0</v>
+        <v>68.0</v>
       </c>
       <c r="B330" t="n">
         <v>0.0</v>
       </c>
       <c r="C330" t="n">
-        <v>7988.0</v>
+        <v>6868.0</v>
       </c>
       <c r="D330" t="n">
-        <v>3820.0</v>
+        <v>4418.0</v>
       </c>
       <c r="E330" t="n">
         <v>1.0</v>
@@ -5667,16 +5667,16 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>153.0</v>
+        <v>64.0</v>
       </c>
       <c r="B331" t="n">
         <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>7909.0</v>
+        <v>7037.0</v>
       </c>
       <c r="D331" t="n">
-        <v>3912.0</v>
+        <v>4446.0</v>
       </c>
       <c r="E331" t="n">
         <v>1.0</v>
@@ -5684,16 +5684,16 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>149.0</v>
+        <v>77.0</v>
       </c>
       <c r="B332" t="n">
         <v>0.0</v>
       </c>
       <c r="C332" t="n">
-        <v>7872.0</v>
+        <v>6911.0</v>
       </c>
       <c r="D332" t="n">
-        <v>3922.0</v>
+        <v>4296.0</v>
       </c>
       <c r="E332" t="n">
         <v>1.0</v>
@@ -5701,16 +5701,16 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>158.0</v>
+        <v>99.0</v>
       </c>
       <c r="B333" t="n">
         <v>0.0</v>
       </c>
       <c r="C333" t="n">
-        <v>7844.0</v>
+        <v>6947.0</v>
       </c>
       <c r="D333" t="n">
-        <v>3902.0</v>
+        <v>4209.0</v>
       </c>
       <c r="E333" t="n">
         <v>1.0</v>
@@ -5718,16 +5718,16 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>138.0</v>
+        <v>124.0</v>
       </c>
       <c r="B334" t="n">
         <v>0.0</v>
       </c>
       <c r="C334" t="n">
-        <v>7805.0</v>
+        <v>6891.0</v>
       </c>
       <c r="D334" t="n">
-        <v>3991.0</v>
+        <v>4075.0</v>
       </c>
       <c r="E334" t="n">
         <v>1.0</v>
@@ -5735,16 +5735,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>148.0</v>
+        <v>143.0</v>
       </c>
       <c r="B335" t="n">
         <v>0.0</v>
       </c>
       <c r="C335" t="n">
-        <v>7660.0</v>
+        <v>7037.0</v>
       </c>
       <c r="D335" t="n">
-        <v>3924.0</v>
+        <v>3965.0</v>
       </c>
       <c r="E335" t="n">
         <v>1.0</v>
@@ -5752,16 +5752,16 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>125.0</v>
+        <v>132.0</v>
       </c>
       <c r="B336" t="n">
         <v>0.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7705.0</v>
+        <v>7124.0</v>
       </c>
       <c r="D336" t="n">
-        <v>4065.0</v>
+        <v>4039.0</v>
       </c>
       <c r="E336" t="n">
         <v>1.0</v>
@@ -5769,16 +5769,16 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>90.0</v>
+        <v>79.0</v>
       </c>
       <c r="B337" t="n">
         <v>0.0</v>
       </c>
       <c r="C337" t="n">
-        <v>7817.0</v>
+        <v>7111.0</v>
       </c>
       <c r="D337" t="n">
-        <v>4252.0</v>
+        <v>4288.0</v>
       </c>
       <c r="E337" t="n">
         <v>1.0</v>
@@ -5786,16 +5786,16 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>81.0</v>
+        <v>72.0</v>
       </c>
       <c r="B338" t="n">
         <v>0.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7698.0</v>
+        <v>7160.0</v>
       </c>
       <c r="D338" t="n">
-        <v>4279.0</v>
+        <v>4370.0</v>
       </c>
       <c r="E338" t="n">
         <v>1.0</v>
@@ -5803,16 +5803,16 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="B339" t="n">
         <v>0.0</v>
       </c>
       <c r="C339" t="n">
-        <v>7613.0</v>
+        <v>7207.0</v>
       </c>
       <c r="D339" t="n">
-        <v>4275.0</v>
+        <v>4270.0</v>
       </c>
       <c r="E339" t="n">
         <v>1.0</v>
@@ -5820,16 +5820,16 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>108.0</v>
+        <v>97.0</v>
       </c>
       <c r="B340" t="n">
         <v>0.0</v>
       </c>
       <c r="C340" t="n">
-        <v>7601.0</v>
+        <v>7128.0</v>
       </c>
       <c r="D340" t="n">
-        <v>4171.0</v>
+        <v>4215.0</v>
       </c>
       <c r="E340" t="n">
         <v>1.0</v>
@@ -5837,16 +5837,16 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>113.0</v>
+        <v>106.0</v>
       </c>
       <c r="B341" t="n">
         <v>0.0</v>
       </c>
       <c r="C341" t="n">
-        <v>7604.0</v>
+        <v>7216.0</v>
       </c>
       <c r="D341" t="n">
-        <v>4146.0</v>
+        <v>4180.0</v>
       </c>
       <c r="E341" t="n">
         <v>1.0</v>
@@ -5854,16 +5854,16 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>126.0</v>
+        <v>145.0</v>
       </c>
       <c r="B342" t="n">
         <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>7562.0</v>
+        <v>7271.0</v>
       </c>
       <c r="D342" t="n">
-        <v>4058.0</v>
+        <v>3948.0</v>
       </c>
       <c r="E342" t="n">
         <v>1.0</v>
@@ -5871,16 +5871,16 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>115.0</v>
+        <v>144.0</v>
       </c>
       <c r="B343" t="n">
         <v>0.0</v>
       </c>
       <c r="C343" t="n">
-        <v>7506.0</v>
+        <v>7345.0</v>
       </c>
       <c r="D343" t="n">
-        <v>4138.0</v>
+        <v>3951.0</v>
       </c>
       <c r="E343" t="n">
         <v>1.0</v>
@@ -5888,16 +5888,16 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>114.0</v>
+        <v>164.0</v>
       </c>
       <c r="B344" t="n">
         <v>0.0</v>
       </c>
       <c r="C344" t="n">
-        <v>7541.0</v>
+        <v>7351.0</v>
       </c>
       <c r="D344" t="n">
-        <v>4141.0</v>
+        <v>3877.0</v>
       </c>
       <c r="E344" t="n">
         <v>1.0</v>
@@ -5905,16 +5905,16 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>104.0</v>
+        <v>163.0</v>
       </c>
       <c r="B345" t="n">
         <v>0.0</v>
       </c>
       <c r="C345" t="n">
-        <v>7542.0</v>
+        <v>7388.0</v>
       </c>
       <c r="D345" t="n">
-        <v>4198.0</v>
+        <v>3879.0</v>
       </c>
       <c r="E345" t="n">
         <v>1.0</v>
@@ -5922,16 +5922,16 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>100.0</v>
+        <v>155.0</v>
       </c>
       <c r="B346" t="n">
         <v>0.0</v>
       </c>
       <c r="C346" t="n">
-        <v>7549.0</v>
+        <v>7449.0</v>
       </c>
       <c r="D346" t="n">
-        <v>4208.0</v>
+        <v>3911.0</v>
       </c>
       <c r="E346" t="n">
         <v>1.0</v>
@@ -5939,16 +5939,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>93.0</v>
+        <v>133.0</v>
       </c>
       <c r="B347" t="n">
         <v>0.0</v>
       </c>
       <c r="C347" t="n">
-        <v>7554.0</v>
+        <v>7466.0</v>
       </c>
       <c r="D347" t="n">
-        <v>4236.0</v>
+        <v>4037.0</v>
       </c>
       <c r="E347" t="n">
         <v>1.0</v>
@@ -5956,16 +5956,16 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>94.0</v>
+        <v>130.0</v>
       </c>
       <c r="B348" t="n">
         <v>0.0</v>
       </c>
       <c r="C348" t="n">
-        <v>7534.0</v>
+        <v>7344.0</v>
       </c>
       <c r="D348" t="n">
-        <v>4227.0</v>
+        <v>4046.0</v>
       </c>
       <c r="E348" t="n">
         <v>1.0</v>
@@ -5973,16 +5973,16 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>87.0</v>
+        <v>112.0</v>
       </c>
       <c r="B349" t="n">
         <v>0.0</v>
       </c>
       <c r="C349" t="n">
-        <v>7432.0</v>
+        <v>7355.0</v>
       </c>
       <c r="D349" t="n">
-        <v>4265.0</v>
+        <v>4151.0</v>
       </c>
       <c r="E349" t="n">
         <v>1.0</v>
@@ -5990,16 +5990,16 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>83.0</v>
+        <v>96.0</v>
       </c>
       <c r="B350" t="n">
         <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>7360.0</v>
+        <v>7349.0</v>
       </c>
       <c r="D350" t="n">
-        <v>4275.0</v>
+        <v>4219.0</v>
       </c>
       <c r="E350" t="n">
         <v>1.0</v>
@@ -6007,16 +6007,16 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>74.0</v>
+        <v>87.0</v>
       </c>
       <c r="B351" t="n">
         <v>0.0</v>
       </c>
       <c r="C351" t="n">
-        <v>7333.0</v>
+        <v>7432.0</v>
       </c>
       <c r="D351" t="n">
-        <v>4335.0</v>
+        <v>4265.0</v>
       </c>
       <c r="E351" t="n">
         <v>1.0</v>
@@ -6024,16 +6024,16 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>66.0</v>
+        <v>83.0</v>
       </c>
       <c r="B352" t="n">
         <v>0.0</v>
       </c>
       <c r="C352" t="n">
-        <v>7364.0</v>
+        <v>7360.0</v>
       </c>
       <c r="D352" t="n">
-        <v>4427.0</v>
+        <v>4275.0</v>
       </c>
       <c r="E352" t="n">
         <v>1.0</v>
@@ -6041,16 +6041,16 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>60.0</v>
+        <v>74.0</v>
       </c>
       <c r="B353" t="n">
         <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>7338.0</v>
+        <v>7333.0</v>
       </c>
       <c r="D353" t="n">
-        <v>4481.0</v>
+        <v>4335.0</v>
       </c>
       <c r="E353" t="n">
         <v>1.0</v>
@@ -6058,16 +6058,16 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="B354" t="n">
         <v>0.0</v>
       </c>
       <c r="C354" t="n">
-        <v>7399.0</v>
+        <v>7364.0</v>
       </c>
       <c r="D354" t="n">
-        <v>4467.0</v>
+        <v>4427.0</v>
       </c>
       <c r="E354" t="n">
         <v>1.0</v>
@@ -6109,16 +6109,16 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
       <c r="B357" t="n">
         <v>0.0</v>
       </c>
       <c r="C357" t="n">
-        <v>7520.0</v>
+        <v>7399.0</v>
       </c>
       <c r="D357" t="n">
-        <v>4572.0</v>
+        <v>4467.0</v>
       </c>
       <c r="E357" t="n">
         <v>1.0</v>
@@ -6126,16 +6126,16 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B358" t="n">
         <v>0.0</v>
       </c>
       <c r="C358" t="n">
-        <v>7647.0</v>
+        <v>7338.0</v>
       </c>
       <c r="D358" t="n">
-        <v>4504.0</v>
+        <v>4481.0</v>
       </c>
       <c r="E358" t="n">
         <v>1.0</v>
@@ -6143,16 +6143,16 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="B359" t="n">
         <v>0.0</v>
       </c>
       <c r="C359" t="n">
-        <v>7631.0</v>
+        <v>7259.0</v>
       </c>
       <c r="D359" t="n">
-        <v>4573.0</v>
+        <v>4630.0</v>
       </c>
       <c r="E359" t="n">
         <v>1.0</v>
@@ -6160,16 +6160,16 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>52.0</v>
+        <v>38.0</v>
       </c>
       <c r="B360" t="n">
         <v>0.0</v>
       </c>
       <c r="C360" t="n">
-        <v>7674.0</v>
+        <v>7417.0</v>
       </c>
       <c r="D360" t="n">
-        <v>4579.0</v>
+        <v>4788.0</v>
       </c>
       <c r="E360" t="n">
         <v>1.0</v>
@@ -6177,16 +6177,16 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
       <c r="B361" t="n">
         <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>7679.0</v>
+        <v>7267.0</v>
       </c>
       <c r="D361" t="n">
-        <v>4581.0</v>
+        <v>4779.0</v>
       </c>
       <c r="E361" t="n">
         <v>1.0</v>
@@ -6194,16 +6194,16 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>57.0</v>
+        <v>31.0</v>
       </c>
       <c r="B362" t="n">
         <v>0.0</v>
       </c>
       <c r="C362" t="n">
-        <v>7832.0</v>
+        <v>7295.0</v>
       </c>
       <c r="D362" t="n">
-        <v>4542.0</v>
+        <v>4887.0</v>
       </c>
       <c r="E362" t="n">
         <v>1.0</v>
@@ -6211,16 +6211,16 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>55.0</v>
+        <v>21.0</v>
       </c>
       <c r="B363" t="n">
         <v>0.0</v>
       </c>
       <c r="C363" t="n">
-        <v>7848.0</v>
+        <v>7142.0</v>
       </c>
       <c r="D363" t="n">
-        <v>4546.0</v>
+        <v>5032.0</v>
       </c>
       <c r="E363" t="n">
         <v>1.0</v>
@@ -6228,16 +6228,16 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>47.0</v>
+        <v>19.0</v>
       </c>
       <c r="B364" t="n">
         <v>0.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7692.0</v>
+        <v>7254.0</v>
       </c>
       <c r="D364" t="n">
-        <v>4666.0</v>
+        <v>5129.0</v>
       </c>
       <c r="E364" t="n">
         <v>1.0</v>
@@ -6245,16 +6245,16 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>45.0</v>
+        <v>16.0</v>
       </c>
       <c r="B365" t="n">
         <v>0.0</v>
       </c>
       <c r="C365" t="n">
-        <v>7752.0</v>
+        <v>7503.0</v>
       </c>
       <c r="D365" t="n">
-        <v>4721.0</v>
+        <v>5191.0</v>
       </c>
       <c r="E365" t="n">
         <v>1.0</v>
@@ -6262,16 +6262,16 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>42.0</v>
+        <v>3.0</v>
       </c>
       <c r="B366" t="n">
         <v>0.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7698.0</v>
+        <v>7264.0</v>
       </c>
       <c r="D366" t="n">
-        <v>4745.0</v>
+        <v>5575.0</v>
       </c>
       <c r="E366" t="n">
         <v>1.0</v>
@@ -6279,16 +6279,16 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>46.0</v>
+        <v>4.0</v>
       </c>
       <c r="B367" t="n">
         <v>0.0</v>
       </c>
       <c r="C367" t="n">
-        <v>7673.0</v>
+        <v>7324.0</v>
       </c>
       <c r="D367" t="n">
-        <v>4718.0</v>
+        <v>5560.0</v>
       </c>
       <c r="E367" t="n">
         <v>1.0</v>
@@ -6296,16 +6296,16 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>44.0</v>
+        <v>5.0</v>
       </c>
       <c r="B368" t="n">
         <v>0.0</v>
       </c>
       <c r="C368" t="n">
-        <v>7617.0</v>
+        <v>7547.0</v>
       </c>
       <c r="D368" t="n">
-        <v>4724.0</v>
+        <v>5503.0</v>
       </c>
       <c r="E368" t="n">
         <v>1.0</v>
@@ -6313,16 +6313,16 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>43.0</v>
+        <v>1.0</v>
       </c>
       <c r="B369" t="n">
         <v>0.0</v>
       </c>
       <c r="C369" t="n">
-        <v>7570.0</v>
+        <v>7810.0</v>
       </c>
       <c r="D369" t="n">
-        <v>4741.0</v>
+        <v>6053.0</v>
       </c>
       <c r="E369" t="n">
         <v>1.0</v>
@@ -6330,16 +6330,16 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>48.0</v>
+        <v>2.0</v>
       </c>
       <c r="B370" t="n">
         <v>0.0</v>
       </c>
       <c r="C370" t="n">
-        <v>7547.0</v>
+        <v>7798.0</v>
       </c>
       <c r="D370" t="n">
-        <v>4664.0</v>
+        <v>5709.0</v>
       </c>
       <c r="E370" t="n">
         <v>1.0</v>
@@ -6347,16 +6347,16 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="B371" t="n">
         <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>7417.0</v>
+        <v>7744.0</v>
       </c>
       <c r="D371" t="n">
-        <v>4788.0</v>
+        <v>5476.0</v>
       </c>
       <c r="E371" t="n">
         <v>1.0</v>
@@ -6364,16 +6364,16 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.0</v>
+        <v>7.0</v>
       </c>
       <c r="B372" t="n">
         <v>0.0</v>
       </c>
       <c r="C372" t="n">
-        <v>7583.0</v>
+        <v>7821.0</v>
       </c>
       <c r="D372" t="n">
-        <v>4813.0</v>
+        <v>5457.0</v>
       </c>
       <c r="E372" t="n">
         <v>1.0</v>
@@ -6381,16 +6381,16 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="B373" t="n">
         <v>0.0</v>
       </c>
       <c r="C373" t="n">
-        <v>7654.0</v>
+        <v>7883.0</v>
       </c>
       <c r="D373" t="n">
-        <v>4795.0</v>
+        <v>5408.0</v>
       </c>
       <c r="E373" t="n">
         <v>1.0</v>
@@ -6398,16 +6398,16 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>35.0</v>
+        <v>9.0</v>
       </c>
       <c r="B374" t="n">
         <v>0.0</v>
       </c>
       <c r="C374" t="n">
-        <v>7702.0</v>
+        <v>7874.0</v>
       </c>
       <c r="D374" t="n">
-        <v>4815.0</v>
+        <v>5405.0</v>
       </c>
       <c r="E374" t="n">
         <v>1.0</v>
@@ -6415,16 +6415,16 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="B375" t="n">
         <v>0.0</v>
       </c>
       <c r="C375" t="n">
-        <v>7726.0</v>
+        <v>7927.0</v>
       </c>
       <c r="D375" t="n">
-        <v>4833.0</v>
+        <v>5365.0</v>
       </c>
       <c r="E375" t="n">
         <v>1.0</v>
@@ -6432,16 +6432,16 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="B376" t="n">
         <v>0.0</v>
       </c>
       <c r="C376" t="n">
-        <v>7700.0</v>
+        <v>7962.0</v>
       </c>
       <c r="D376" t="n">
-        <v>4854.0</v>
+        <v>5287.0</v>
       </c>
       <c r="E376" t="n">
         <v>1.0</v>
@@ -6449,16 +6449,16 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="B377" t="n">
         <v>0.0</v>
       </c>
       <c r="C377" t="n">
-        <v>7777.0</v>
+        <v>7913.0</v>
       </c>
       <c r="D377" t="n">
-        <v>4869.0</v>
+        <v>5280.0</v>
       </c>
       <c r="E377" t="n">
         <v>1.0</v>
@@ -6466,16 +6466,16 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="B378" t="n">
         <v>0.0</v>
       </c>
       <c r="C378" t="n">
-        <v>7846.0</v>
+        <v>7848.0</v>
       </c>
       <c r="D378" t="n">
-        <v>4923.0</v>
+        <v>5358.0</v>
       </c>
       <c r="E378" t="n">
         <v>1.0</v>
@@ -6483,16 +6483,16 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="B379" t="n">
         <v>0.0</v>
       </c>
       <c r="C379" t="n">
-        <v>7783.0</v>
+        <v>7802.0</v>
       </c>
       <c r="D379" t="n">
-        <v>4912.0</v>
+        <v>5317.0</v>
       </c>
       <c r="E379" t="n">
         <v>1.0</v>
@@ -6500,16 +6500,16 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="B380" t="n">
         <v>0.0</v>
       </c>
       <c r="C380" t="n">
-        <v>7744.0</v>
+        <v>7724.0</v>
       </c>
       <c r="D380" t="n">
-        <v>4933.0</v>
+        <v>5210.0</v>
       </c>
       <c r="E380" t="n">
         <v>1.0</v>
@@ -6517,16 +6517,16 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="B381" t="n">
         <v>0.0</v>
       </c>
       <c r="C381" t="n">
-        <v>7716.0</v>
+        <v>7759.0</v>
       </c>
       <c r="D381" t="n">
-        <v>4909.0</v>
+        <v>5143.0</v>
       </c>
       <c r="E381" t="n">
         <v>1.0</v>
@@ -6534,16 +6534,16 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="B382" t="n">
         <v>0.0</v>
       </c>
       <c r="C382" t="n">
-        <v>7622.0</v>
+        <v>7890.0</v>
       </c>
       <c r="D382" t="n">
-        <v>4917.0</v>
+        <v>5130.0</v>
       </c>
       <c r="E382" t="n">
         <v>1.0</v>
@@ -6551,16 +6551,16 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="B383" t="n">
         <v>0.0</v>
       </c>
       <c r="C383" t="n">
-        <v>7576.0</v>
+        <v>7790.0</v>
       </c>
       <c r="D383" t="n">
-        <v>4915.0</v>
+        <v>5038.0</v>
       </c>
       <c r="E383" t="n">
         <v>1.0</v>
@@ -6568,16 +6568,16 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B384" t="n">
         <v>0.0</v>
       </c>
       <c r="C384" t="n">
-        <v>7606.0</v>
+        <v>7772.0</v>
       </c>
       <c r="D384" t="n">
-        <v>5009.0</v>
+        <v>4989.0</v>
       </c>
       <c r="E384" t="n">
         <v>1.0</v>
@@ -6585,16 +6585,16 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="B385" t="n">
         <v>0.0</v>
       </c>
       <c r="C385" t="n">
-        <v>7772.0</v>
+        <v>7846.0</v>
       </c>
       <c r="D385" t="n">
-        <v>4989.0</v>
+        <v>4923.0</v>
       </c>
       <c r="E385" t="n">
         <v>1.0</v>
@@ -6602,16 +6602,16 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="B386" t="n">
         <v>0.0</v>
       </c>
       <c r="C386" t="n">
-        <v>7790.0</v>
+        <v>7777.0</v>
       </c>
       <c r="D386" t="n">
-        <v>5038.0</v>
+        <v>4869.0</v>
       </c>
       <c r="E386" t="n">
         <v>1.0</v>
@@ -6619,16 +6619,16 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="B387" t="n">
         <v>0.0</v>
       </c>
       <c r="C387" t="n">
-        <v>7890.0</v>
+        <v>7783.0</v>
       </c>
       <c r="D387" t="n">
-        <v>5130.0</v>
+        <v>4912.0</v>
       </c>
       <c r="E387" t="n">
         <v>1.0</v>
@@ -6636,16 +6636,16 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="B388" t="n">
         <v>0.0</v>
       </c>
       <c r="C388" t="n">
-        <v>7759.0</v>
+        <v>7744.0</v>
       </c>
       <c r="D388" t="n">
-        <v>5143.0</v>
+        <v>4933.0</v>
       </c>
       <c r="E388" t="n">
         <v>1.0</v>
@@ -6653,16 +6653,16 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="B389" t="n">
         <v>0.0</v>
       </c>
       <c r="C389" t="n">
-        <v>7724.0</v>
+        <v>7716.0</v>
       </c>
       <c r="D389" t="n">
-        <v>5210.0</v>
+        <v>4909.0</v>
       </c>
       <c r="E389" t="n">
         <v>1.0</v>
@@ -6670,16 +6670,16 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="B390" t="n">
         <v>0.0</v>
       </c>
       <c r="C390" t="n">
-        <v>7802.0</v>
+        <v>7606.0</v>
       </c>
       <c r="D390" t="n">
-        <v>5317.0</v>
+        <v>5009.0</v>
       </c>
       <c r="E390" t="n">
         <v>1.0</v>
@@ -6687,16 +6687,16 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>11.0</v>
+        <v>28.0</v>
       </c>
       <c r="B391" t="n">
         <v>0.0</v>
       </c>
       <c r="C391" t="n">
-        <v>7848.0</v>
+        <v>7576.0</v>
       </c>
       <c r="D391" t="n">
-        <v>5358.0</v>
+        <v>4915.0</v>
       </c>
       <c r="E391" t="n">
         <v>1.0</v>
@@ -6704,16 +6704,16 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="B392" t="n">
         <v>0.0</v>
       </c>
       <c r="C392" t="n">
-        <v>7913.0</v>
+        <v>7622.0</v>
       </c>
       <c r="D392" t="n">
-        <v>5280.0</v>
+        <v>4917.0</v>
       </c>
       <c r="E392" t="n">
         <v>1.0</v>
@@ -6721,16 +6721,16 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="B393" t="n">
         <v>0.0</v>
       </c>
       <c r="C393" t="n">
-        <v>7962.0</v>
+        <v>7700.0</v>
       </c>
       <c r="D393" t="n">
-        <v>5287.0</v>
+        <v>4854.0</v>
       </c>
       <c r="E393" t="n">
         <v>1.0</v>
@@ -6738,16 +6738,16 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="B394" t="n">
         <v>0.0</v>
       </c>
       <c r="C394" t="n">
-        <v>7927.0</v>
+        <v>7726.0</v>
       </c>
       <c r="D394" t="n">
-        <v>5365.0</v>
+        <v>4833.0</v>
       </c>
       <c r="E394" t="n">
         <v>1.0</v>
@@ -6755,16 +6755,16 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>8.0</v>
+        <v>35.0</v>
       </c>
       <c r="B395" t="n">
         <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>7883.0</v>
+        <v>7702.0</v>
       </c>
       <c r="D395" t="n">
-        <v>5408.0</v>
+        <v>4815.0</v>
       </c>
       <c r="E395" t="n">
         <v>1.0</v>
@@ -6772,16 +6772,16 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>9.0</v>
+        <v>37.0</v>
       </c>
       <c r="B396" t="n">
         <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>7874.0</v>
+        <v>7654.0</v>
       </c>
       <c r="D396" t="n">
-        <v>5405.0</v>
+        <v>4795.0</v>
       </c>
       <c r="E396" t="n">
         <v>1.0</v>
@@ -6789,16 +6789,16 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="B397" t="n">
         <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>7821.0</v>
+        <v>7698.0</v>
       </c>
       <c r="D397" t="n">
-        <v>5457.0</v>
+        <v>4745.0</v>
       </c>
       <c r="E397" t="n">
         <v>1.0</v>
@@ -6806,16 +6806,16 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>6.0</v>
+        <v>45.0</v>
       </c>
       <c r="B398" t="n">
         <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7744.0</v>
+        <v>7752.0</v>
       </c>
       <c r="D398" t="n">
-        <v>5476.0</v>
+        <v>4721.0</v>
       </c>
       <c r="E398" t="n">
         <v>1.0</v>
@@ -6823,16 +6823,16 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.0</v>
+        <v>47.0</v>
       </c>
       <c r="B399" t="n">
         <v>0.0</v>
       </c>
       <c r="C399" t="n">
-        <v>7798.0</v>
+        <v>7692.0</v>
       </c>
       <c r="D399" t="n">
-        <v>5709.0</v>
+        <v>4666.0</v>
       </c>
       <c r="E399" t="n">
         <v>1.0</v>
@@ -6840,16 +6840,16 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1.0</v>
+        <v>46.0</v>
       </c>
       <c r="B400" t="n">
         <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>7810.0</v>
+        <v>7673.0</v>
       </c>
       <c r="D400" t="n">
-        <v>6053.0</v>
+        <v>4718.0</v>
       </c>
       <c r="E400" t="n">
         <v>1.0</v>
@@ -6857,16 +6857,16 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>5.0</v>
+        <v>44.0</v>
       </c>
       <c r="B401" t="n">
         <v>0.0</v>
       </c>
       <c r="C401" t="n">
-        <v>7547.0</v>
+        <v>7617.0</v>
       </c>
       <c r="D401" t="n">
-        <v>5503.0</v>
+        <v>4724.0</v>
       </c>
       <c r="E401" t="n">
         <v>1.0</v>
@@ -6874,16 +6874,16 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="B402" t="n">
         <v>0.0</v>
       </c>
       <c r="C402" t="n">
-        <v>7324.0</v>
+        <v>7583.0</v>
       </c>
       <c r="D402" t="n">
-        <v>5560.0</v>
+        <v>4813.0</v>
       </c>
       <c r="E402" t="n">
         <v>1.0</v>
@@ -6891,16 +6891,16 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="B403" t="n">
         <v>0.0</v>
       </c>
       <c r="C403" t="n">
-        <v>7264.0</v>
+        <v>7570.0</v>
       </c>
       <c r="D403" t="n">
-        <v>5575.0</v>
+        <v>4741.0</v>
       </c>
       <c r="E403" t="n">
         <v>1.0</v>
@@ -6908,16 +6908,16 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>16.0</v>
+        <v>48.0</v>
       </c>
       <c r="B404" t="n">
         <v>0.0</v>
       </c>
       <c r="C404" t="n">
-        <v>7503.0</v>
+        <v>7547.0</v>
       </c>
       <c r="D404" t="n">
-        <v>5191.0</v>
+        <v>4664.0</v>
       </c>
       <c r="E404" t="n">
         <v>1.0</v>
@@ -6925,16 +6925,16 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>19.0</v>
+        <v>54.0</v>
       </c>
       <c r="B405" t="n">
         <v>0.0</v>
       </c>
       <c r="C405" t="n">
-        <v>7254.0</v>
+        <v>7520.0</v>
       </c>
       <c r="D405" t="n">
-        <v>5129.0</v>
+        <v>4572.0</v>
       </c>
       <c r="E405" t="n">
         <v>1.0</v>
@@ -6942,16 +6942,16 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>21.0</v>
+        <v>59.0</v>
       </c>
       <c r="B406" t="n">
         <v>0.0</v>
       </c>
       <c r="C406" t="n">
-        <v>7142.0</v>
+        <v>7647.0</v>
       </c>
       <c r="D406" t="n">
-        <v>5032.0</v>
+        <v>4504.0</v>
       </c>
       <c r="E406" t="n">
         <v>1.0</v>
@@ -6959,16 +6959,16 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>27.0</v>
+        <v>53.0</v>
       </c>
       <c r="B407" t="n">
         <v>0.0</v>
       </c>
       <c r="C407" t="n">
-        <v>6937.0</v>
+        <v>7631.0</v>
       </c>
       <c r="D407" t="n">
-        <v>4917.0</v>
+        <v>4573.0</v>
       </c>
       <c r="E407" t="n">
         <v>1.0</v>
@@ -6976,16 +6976,16 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
       <c r="B408" t="n">
         <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>6806.0</v>
+        <v>7674.0</v>
       </c>
       <c r="D408" t="n">
-        <v>4755.0</v>
+        <v>4579.0</v>
       </c>
       <c r="E408" t="n">
         <v>1.0</v>
@@ -6993,16 +6993,16 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>31.0</v>
+        <v>51.0</v>
       </c>
       <c r="B409" t="n">
         <v>0.0</v>
       </c>
       <c r="C409" t="n">
-        <v>7295.0</v>
+        <v>7679.0</v>
       </c>
       <c r="D409" t="n">
-        <v>4887.0</v>
+        <v>4581.0</v>
       </c>
       <c r="E409" t="n">
         <v>1.0</v>
@@ -7010,16 +7010,16 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>39.0</v>
+        <v>57.0</v>
       </c>
       <c r="B410" t="n">
         <v>0.0</v>
       </c>
       <c r="C410" t="n">
-        <v>7267.0</v>
+        <v>7832.0</v>
       </c>
       <c r="D410" t="n">
-        <v>4779.0</v>
+        <v>4542.0</v>
       </c>
       <c r="E410" t="n">
         <v>1.0</v>
@@ -7027,16 +7027,16 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
       <c r="B411" t="n">
         <v>0.0</v>
       </c>
       <c r="C411" t="n">
-        <v>7259.0</v>
+        <v>7848.0</v>
       </c>
       <c r="D411" t="n">
-        <v>4630.0</v>
+        <v>4546.0</v>
       </c>
       <c r="E411" t="n">
         <v>1.0</v>
@@ -7044,16 +7044,16 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>64.0</v>
+        <v>90.0</v>
       </c>
       <c r="B412" t="n">
         <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>7037.0</v>
+        <v>7817.0</v>
       </c>
       <c r="D412" t="n">
-        <v>4446.0</v>
+        <v>4252.0</v>
       </c>
       <c r="E412" t="n">
         <v>1.0</v>
@@ -7061,16 +7061,16 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
       <c r="B413" t="n">
         <v>0.0</v>
       </c>
       <c r="C413" t="n">
-        <v>7160.0</v>
+        <v>7698.0</v>
       </c>
       <c r="D413" t="n">
-        <v>4370.0</v>
+        <v>4279.0</v>
       </c>
       <c r="E413" t="n">
         <v>1.0</v>
@@ -7078,16 +7078,16 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>85.0</v>
+        <v>82.0</v>
       </c>
       <c r="B414" t="n">
         <v>0.0</v>
       </c>
       <c r="C414" t="n">
-        <v>7207.0</v>
+        <v>7613.0</v>
       </c>
       <c r="D414" t="n">
-        <v>4270.0</v>
+        <v>4275.0</v>
       </c>
       <c r="E414" t="n">
         <v>1.0</v>
@@ -7095,16 +7095,16 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>79.0</v>
+        <v>93.0</v>
       </c>
       <c r="B415" t="n">
         <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7111.0</v>
+        <v>7554.0</v>
       </c>
       <c r="D415" t="n">
-        <v>4288.0</v>
+        <v>4236.0</v>
       </c>
       <c r="E415" t="n">
         <v>1.0</v>
@@ -7112,16 +7112,16 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>97.0</v>
+        <v>94.0</v>
       </c>
       <c r="B416" t="n">
         <v>0.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7128.0</v>
+        <v>7534.0</v>
       </c>
       <c r="D416" t="n">
-        <v>4215.0</v>
+        <v>4227.0</v>
       </c>
       <c r="E416" t="n">
         <v>1.0</v>
@@ -7129,16 +7129,16 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>143.0</v>
+        <v>108.0</v>
       </c>
       <c r="B417" t="n">
         <v>0.0</v>
       </c>
       <c r="C417" t="n">
-        <v>7037.0</v>
+        <v>7601.0</v>
       </c>
       <c r="D417" t="n">
-        <v>3965.0</v>
+        <v>4171.0</v>
       </c>
       <c r="E417" t="n">
         <v>1.0</v>
@@ -7146,16 +7146,16 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="B418" t="n">
         <v>0.0</v>
       </c>
       <c r="C418" t="n">
-        <v>7124.0</v>
+        <v>7604.0</v>
       </c>
       <c r="D418" t="n">
-        <v>4039.0</v>
+        <v>4146.0</v>
       </c>
       <c r="E418" t="n">
         <v>1.0</v>
@@ -7163,16 +7163,16 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>106.0</v>
+        <v>100.0</v>
       </c>
       <c r="B419" t="n">
         <v>0.0</v>
       </c>
       <c r="C419" t="n">
-        <v>7216.0</v>
+        <v>7549.0</v>
       </c>
       <c r="D419" t="n">
-        <v>4180.0</v>
+        <v>4208.0</v>
       </c>
       <c r="E419" t="n">
         <v>1.0</v>
@@ -7180,16 +7180,16 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>96.0</v>
+        <v>104.0</v>
       </c>
       <c r="B420" t="n">
         <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>7349.0</v>
+        <v>7542.0</v>
       </c>
       <c r="D420" t="n">
-        <v>4219.0</v>
+        <v>4198.0</v>
       </c>
       <c r="E420" t="n">
         <v>1.0</v>
@@ -7197,16 +7197,16 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="B421" t="n">
         <v>0.0</v>
       </c>
       <c r="C421" t="n">
-        <v>7355.0</v>
+        <v>7506.0</v>
       </c>
       <c r="D421" t="n">
-        <v>4151.0</v>
+        <v>4138.0</v>
       </c>
       <c r="E421" t="n">
         <v>1.0</v>
@@ -7214,16 +7214,16 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>133.0</v>
+        <v>114.0</v>
       </c>
       <c r="B422" t="n">
         <v>0.0</v>
       </c>
       <c r="C422" t="n">
-        <v>7466.0</v>
+        <v>7541.0</v>
       </c>
       <c r="D422" t="n">
-        <v>4037.0</v>
+        <v>4141.0</v>
       </c>
       <c r="E422" t="n">
         <v>1.0</v>
@@ -7231,16 +7231,16 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>130.0</v>
+        <v>126.0</v>
       </c>
       <c r="B423" t="n">
         <v>0.0</v>
       </c>
       <c r="C423" t="n">
-        <v>7344.0</v>
+        <v>7562.0</v>
       </c>
       <c r="D423" t="n">
-        <v>4046.0</v>
+        <v>4058.0</v>
       </c>
       <c r="E423" t="n">
         <v>1.0</v>
@@ -7248,16 +7248,16 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>144.0</v>
+        <v>148.0</v>
       </c>
       <c r="B424" t="n">
         <v>0.0</v>
       </c>
       <c r="C424" t="n">
-        <v>7345.0</v>
+        <v>7660.0</v>
       </c>
       <c r="D424" t="n">
-        <v>3951.0</v>
+        <v>3924.0</v>
       </c>
       <c r="E424" t="n">
         <v>1.0</v>
@@ -7265,16 +7265,16 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>145.0</v>
+        <v>125.0</v>
       </c>
       <c r="B425" t="n">
         <v>0.0</v>
       </c>
       <c r="C425" t="n">
-        <v>7271.0</v>
+        <v>7705.0</v>
       </c>
       <c r="D425" t="n">
-        <v>3948.0</v>
+        <v>4065.0</v>
       </c>
       <c r="E425" t="n">
         <v>1.0</v>
@@ -7282,16 +7282,16 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>155.0</v>
+        <v>138.0</v>
       </c>
       <c r="B426" t="n">
         <v>0.0</v>
       </c>
       <c r="C426" t="n">
-        <v>7449.0</v>
+        <v>7805.0</v>
       </c>
       <c r="D426" t="n">
-        <v>3911.0</v>
+        <v>3991.0</v>
       </c>
       <c r="E426" t="n">
         <v>1.0</v>
@@ -7299,16 +7299,16 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>163.0</v>
+        <v>158.0</v>
       </c>
       <c r="B427" t="n">
         <v>0.0</v>
       </c>
       <c r="C427" t="n">
-        <v>7388.0</v>
+        <v>7844.0</v>
       </c>
       <c r="D427" t="n">
-        <v>3879.0</v>
+        <v>3902.0</v>
       </c>
       <c r="E427" t="n">
         <v>1.0</v>
@@ -7316,16 +7316,16 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>164.0</v>
+        <v>149.0</v>
       </c>
       <c r="B428" t="n">
         <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>7351.0</v>
+        <v>7872.0</v>
       </c>
       <c r="D428" t="n">
-        <v>3877.0</v>
+        <v>3922.0</v>
       </c>
       <c r="E428" t="n">
         <v>1.0</v>
@@ -7333,16 +7333,16 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>185.0</v>
+        <v>153.0</v>
       </c>
       <c r="B429" t="n">
         <v>0.0</v>
       </c>
       <c r="C429" t="n">
-        <v>7423.0</v>
+        <v>7909.0</v>
       </c>
       <c r="D429" t="n">
-        <v>3776.0</v>
+        <v>3912.0</v>
       </c>
       <c r="E429" t="n">
         <v>1.0</v>
@@ -7350,16 +7350,16 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>196.0</v>
+        <v>178.0</v>
       </c>
       <c r="B430" t="n">
         <v>0.0</v>
       </c>
       <c r="C430" t="n">
-        <v>7429.0</v>
+        <v>7988.0</v>
       </c>
       <c r="D430" t="n">
-        <v>3737.0</v>
+        <v>3820.0</v>
       </c>
       <c r="E430" t="n">
         <v>1.0</v>
@@ -7367,16 +7367,16 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>186.0</v>
+        <v>180.0</v>
       </c>
       <c r="B431" t="n">
         <v>0.0</v>
       </c>
       <c r="C431" t="n">
-        <v>7342.0</v>
+        <v>7841.0</v>
       </c>
       <c r="D431" t="n">
-        <v>3775.0</v>
+        <v>3818.0</v>
       </c>
       <c r="E431" t="n">
         <v>1.0</v>
@@ -7384,16 +7384,16 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>197.0</v>
+        <v>189.0</v>
       </c>
       <c r="B432" t="n">
         <v>0.0</v>
       </c>
       <c r="C432" t="n">
-        <v>7262.0</v>
+        <v>7750.0</v>
       </c>
       <c r="D432" t="n">
-        <v>3725.0</v>
+        <v>3760.0</v>
       </c>
       <c r="E432" t="n">
         <v>1.0</v>
@@ -7401,16 +7401,16 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>211.0</v>
+        <v>191.0</v>
       </c>
       <c r="B433" t="n">
         <v>0.0</v>
       </c>
       <c r="C433" t="n">
-        <v>7331.0</v>
+        <v>7879.0</v>
       </c>
       <c r="D433" t="n">
-        <v>3634.0</v>
+        <v>3743.0</v>
       </c>
       <c r="E433" t="n">
         <v>1.0</v>
@@ -7418,16 +7418,16 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>219.0</v>
+        <v>210.0</v>
       </c>
       <c r="B434" t="n">
         <v>0.0</v>
       </c>
       <c r="C434" t="n">
-        <v>7370.0</v>
+        <v>7922.0</v>
       </c>
       <c r="D434" t="n">
-        <v>3588.0</v>
+        <v>3655.0</v>
       </c>
       <c r="E434" t="n">
         <v>1.0</v>
@@ -7435,16 +7435,16 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>225.0</v>
+        <v>221.0</v>
       </c>
       <c r="B435" t="n">
         <v>0.0</v>
       </c>
       <c r="C435" t="n">
-        <v>7492.0</v>
+        <v>7906.0</v>
       </c>
       <c r="D435" t="n">
-        <v>3560.0</v>
+        <v>3580.0</v>
       </c>
       <c r="E435" t="n">
         <v>1.0</v>
@@ -7452,16 +7452,16 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>230.0</v>
+        <v>237.0</v>
       </c>
       <c r="B436" t="n">
         <v>0.0</v>
       </c>
       <c r="C436" t="n">
-        <v>7408.0</v>
+        <v>7919.0</v>
       </c>
       <c r="D436" t="n">
-        <v>3534.0</v>
+        <v>3496.0</v>
       </c>
       <c r="E436" t="n">
         <v>1.0</v>
@@ -7469,16 +7469,16 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>253.0</v>
+        <v>231.0</v>
       </c>
       <c r="B437" t="n">
         <v>0.0</v>
       </c>
       <c r="C437" t="n">
-        <v>7321.0</v>
+        <v>8013.0</v>
       </c>
       <c r="D437" t="n">
-        <v>3429.0</v>
+        <v>3523.0</v>
       </c>
       <c r="E437" t="n">
         <v>1.0</v>
@@ -7486,16 +7486,16 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>247.0</v>
+        <v>255.0</v>
       </c>
       <c r="B438" t="n">
         <v>0.0</v>
       </c>
       <c r="C438" t="n">
-        <v>7199.0</v>
+        <v>8001.0</v>
       </c>
       <c r="D438" t="n">
-        <v>3469.0</v>
+        <v>3418.0</v>
       </c>
       <c r="E438" t="n">
         <v>1.0</v>
@@ -7503,16 +7503,16 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>233.0</v>
+        <v>218.0</v>
       </c>
       <c r="B439" t="n">
         <v>0.0</v>
       </c>
       <c r="C439" t="n">
-        <v>7141.0</v>
+        <v>7803.0</v>
       </c>
       <c r="D439" t="n">
-        <v>3514.0</v>
+        <v>3598.0</v>
       </c>
       <c r="E439" t="n">
         <v>1.0</v>
@@ -7520,16 +7520,16 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>206.0</v>
+        <v>242.0</v>
       </c>
       <c r="B440" t="n">
         <v>0.0</v>
       </c>
       <c r="C440" t="n">
-        <v>6958.0</v>
+        <v>7696.0</v>
       </c>
       <c r="D440" t="n">
-        <v>3678.0</v>
+        <v>3486.0</v>
       </c>
       <c r="E440" t="n">
         <v>1.0</v>
@@ -7537,16 +7537,16 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>160.0</v>
+        <v>236.0</v>
       </c>
       <c r="B441" t="n">
         <v>0.0</v>
       </c>
       <c r="C441" t="n">
-        <v>6862.0</v>
+        <v>7633.0</v>
       </c>
       <c r="D441" t="n">
-        <v>3892.0</v>
+        <v>3499.0</v>
       </c>
       <c r="E441" t="n">
         <v>1.0</v>
@@ -7554,16 +7554,16 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>169.0</v>
+        <v>263.0</v>
       </c>
       <c r="B442" t="n">
         <v>0.0</v>
       </c>
       <c r="C442" t="n">
-        <v>6864.0</v>
+        <v>7654.0</v>
       </c>
       <c r="D442" t="n">
-        <v>3854.0</v>
+        <v>3377.0</v>
       </c>
       <c r="E442" t="n">
         <v>1.0</v>
@@ -7571,16 +7571,16 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>214.0</v>
+        <v>276.0</v>
       </c>
       <c r="B443" t="n">
         <v>0.0</v>
       </c>
       <c r="C443" t="n">
-        <v>6833.0</v>
+        <v>7657.0</v>
       </c>
       <c r="D443" t="n">
-        <v>3618.0</v>
+        <v>3301.0</v>
       </c>
       <c r="E443" t="n">
         <v>1.0</v>
@@ -7588,16 +7588,16 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>215.0</v>
+        <v>272.0</v>
       </c>
       <c r="B444" t="n">
         <v>0.0</v>
       </c>
       <c r="C444" t="n">
-        <v>6798.0</v>
+        <v>7747.0</v>
       </c>
       <c r="D444" t="n">
-        <v>3610.0</v>
+        <v>3329.0</v>
       </c>
       <c r="E444" t="n">
         <v>1.0</v>
@@ -7605,16 +7605,16 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>193.0</v>
+        <v>264.0</v>
       </c>
       <c r="B445" t="n">
         <v>0.0</v>
       </c>
       <c r="C445" t="n">
-        <v>6652.0</v>
+        <v>7838.0</v>
       </c>
       <c r="D445" t="n">
-        <v>3742.0</v>
+        <v>3375.0</v>
       </c>
       <c r="E445" t="n">
         <v>1.0</v>
@@ -7622,16 +7622,16 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>224.0</v>
+        <v>280.0</v>
       </c>
       <c r="B446" t="n">
         <v>0.0</v>
       </c>
       <c r="C446" t="n">
-        <v>6453.0</v>
+        <v>7989.0</v>
       </c>
       <c r="D446" t="n">
-        <v>3567.0</v>
+        <v>3271.0</v>
       </c>
       <c r="E446" t="n">
         <v>1.0</v>
@@ -7639,16 +7639,16 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>209.0</v>
+        <v>291.0</v>
       </c>
       <c r="B447" t="n">
         <v>0.0</v>
       </c>
       <c r="C447" t="n">
-        <v>6426.0</v>
+        <v>7861.0</v>
       </c>
       <c r="D447" t="n">
-        <v>3656.0</v>
+        <v>3216.0</v>
       </c>
       <c r="E447" t="n">
         <v>1.0</v>
@@ -7656,16 +7656,16 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>198.0</v>
+        <v>310.0</v>
       </c>
       <c r="B448" t="n">
         <v>0.0</v>
       </c>
       <c r="C448" t="n">
-        <v>6427.0</v>
+        <v>7909.0</v>
       </c>
       <c r="D448" t="n">
-        <v>3717.0</v>
+        <v>3080.0</v>
       </c>
       <c r="E448" t="n">
         <v>1.0</v>
@@ -7673,16 +7673,16 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>205.0</v>
+        <v>306.0</v>
       </c>
       <c r="B449" t="n">
         <v>0.0</v>
       </c>
       <c r="C449" t="n">
-        <v>6365.0</v>
+        <v>7715.0</v>
       </c>
       <c r="D449" t="n">
-        <v>3679.0</v>
+        <v>3086.0</v>
       </c>
       <c r="E449" t="n">
         <v>1.0</v>
@@ -7690,16 +7690,16 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>207.0</v>
+        <v>288.0</v>
       </c>
       <c r="B450" t="n">
         <v>0.0</v>
       </c>
       <c r="C450" t="n">
-        <v>6317.0</v>
+        <v>7695.0</v>
       </c>
       <c r="D450" t="n">
-        <v>3673.0</v>
+        <v>3220.0</v>
       </c>
       <c r="E450" t="n">
         <v>1.0</v>
@@ -7707,16 +7707,16 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>200.0</v>
+        <v>297.0</v>
       </c>
       <c r="B451" t="n">
         <v>0.0</v>
       </c>
       <c r="C451" t="n">
-        <v>6207.0</v>
+        <v>7532.0</v>
       </c>
       <c r="D451" t="n">
-        <v>3700.0</v>
+        <v>3175.0</v>
       </c>
       <c r="E451" t="n">
         <v>1.0</v>
@@ -7724,16 +7724,16 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>190.0</v>
+        <v>307.0</v>
       </c>
       <c r="B452" t="n">
         <v>0.0</v>
       </c>
       <c r="C452" t="n">
-        <v>6327.0</v>
+        <v>7503.0</v>
       </c>
       <c r="D452" t="n">
-        <v>3745.0</v>
+        <v>3086.0</v>
       </c>
       <c r="E452" t="n">
         <v>1.0</v>
@@ -7741,16 +7741,16 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>177.0</v>
+        <v>304.0</v>
       </c>
       <c r="B453" t="n">
         <v>0.0</v>
       </c>
       <c r="C453" t="n">
-        <v>6120.0</v>
+        <v>7440.0</v>
       </c>
       <c r="D453" t="n">
-        <v>3821.0</v>
+        <v>3100.0</v>
       </c>
       <c r="E453" t="n">
         <v>1.0</v>
@@ -7758,16 +7758,16 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>162.0</v>
+        <v>298.0</v>
       </c>
       <c r="B454" t="n">
         <v>0.0</v>
       </c>
       <c r="C454" t="n">
-        <v>6150.0</v>
+        <v>7434.0</v>
       </c>
       <c r="D454" t="n">
-        <v>3888.0</v>
+        <v>3173.0</v>
       </c>
       <c r="E454" t="n">
         <v>1.0</v>
@@ -7775,16 +7775,16 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>166.0</v>
+        <v>287.0</v>
       </c>
       <c r="B455" t="n">
         <v>0.0</v>
       </c>
       <c r="C455" t="n">
-        <v>6340.0</v>
+        <v>7453.0</v>
       </c>
       <c r="D455" t="n">
-        <v>3870.0</v>
+        <v>3229.0</v>
       </c>
       <c r="E455" t="n">
         <v>1.0</v>
@@ -7792,16 +7792,16 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>156.0</v>
+        <v>271.0</v>
       </c>
       <c r="B456" t="n">
         <v>0.0</v>
       </c>
       <c r="C456" t="n">
-        <v>6333.0</v>
+        <v>7452.0</v>
       </c>
       <c r="D456" t="n">
-        <v>3909.0</v>
+        <v>3339.0</v>
       </c>
       <c r="E456" t="n">
         <v>1.0</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>179.0</v>
+        <v>262.0</v>
       </c>
       <c r="B457" t="n">
         <v>0.0</v>
       </c>
       <c r="C457" t="n">
-        <v>6376.0</v>
+        <v>7475.0</v>
       </c>
       <c r="D457" t="n">
-        <v>3819.0</v>
+        <v>3388.0</v>
       </c>
       <c r="E457" t="n">
         <v>1.0</v>
@@ -7826,16 +7826,16 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>167.0</v>
+        <v>269.0</v>
       </c>
       <c r="B458" t="n">
         <v>0.0</v>
       </c>
       <c r="C458" t="n">
-        <v>6425.0</v>
+        <v>7533.0</v>
       </c>
       <c r="D458" t="n">
-        <v>3867.0</v>
+        <v>3358.0</v>
       </c>
       <c r="E458" t="n">
         <v>1.0</v>
@@ -7843,16 +7843,16 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>176.0</v>
+        <v>259.0</v>
       </c>
       <c r="B459" t="n">
         <v>0.0</v>
       </c>
       <c r="C459" t="n">
-        <v>6454.0</v>
+        <v>7582.0</v>
       </c>
       <c r="D459" t="n">
-        <v>3821.0</v>
+        <v>3396.0</v>
       </c>
       <c r="E459" t="n">
         <v>1.0</v>
@@ -7860,16 +7860,16 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>168.0</v>
+        <v>252.0</v>
       </c>
       <c r="B460" t="n">
         <v>0.0</v>
       </c>
       <c r="C460" t="n">
-        <v>6577.0</v>
+        <v>7494.0</v>
       </c>
       <c r="D460" t="n">
-        <v>3858.0</v>
+        <v>3430.0</v>
       </c>
       <c r="E460" t="n">
         <v>1.0</v>
@@ -7877,16 +7877,16 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>161.0</v>
+        <v>225.0</v>
       </c>
       <c r="B461" t="n">
         <v>0.0</v>
       </c>
       <c r="C461" t="n">
-        <v>6621.0</v>
+        <v>7492.0</v>
       </c>
       <c r="D461" t="n">
-        <v>3891.0</v>
+        <v>3560.0</v>
       </c>
       <c r="E461" t="n">
         <v>1.0</v>
@@ -7894,16 +7894,16 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>151.0</v>
+        <v>230.0</v>
       </c>
       <c r="B462" t="n">
         <v>0.0</v>
       </c>
       <c r="C462" t="n">
-        <v>6602.0</v>
+        <v>7408.0</v>
       </c>
       <c r="D462" t="n">
-        <v>3920.0</v>
+        <v>3534.0</v>
       </c>
       <c r="E462" t="n">
         <v>1.0</v>
@@ -7911,16 +7911,16 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>150.0</v>
+        <v>219.0</v>
       </c>
       <c r="B463" t="n">
         <v>0.0</v>
       </c>
       <c r="C463" t="n">
-        <v>6567.0</v>
+        <v>7370.0</v>
       </c>
       <c r="D463" t="n">
-        <v>3922.0</v>
+        <v>3588.0</v>
       </c>
       <c r="E463" t="n">
         <v>1.0</v>
@@ -7928,16 +7928,16 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>140.0</v>
+        <v>216.0</v>
       </c>
       <c r="B464" t="n">
         <v>0.0</v>
       </c>
       <c r="C464" t="n">
-        <v>6603.0</v>
+        <v>7667.0</v>
       </c>
       <c r="D464" t="n">
-        <v>3982.0</v>
+        <v>3608.0</v>
       </c>
       <c r="E464" t="n">
         <v>1.0</v>
@@ -7945,16 +7945,16 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>141.0</v>
+        <v>203.0</v>
       </c>
       <c r="B465" t="n">
         <v>0.0</v>
       </c>
       <c r="C465" t="n">
-        <v>6537.0</v>
+        <v>7603.0</v>
       </c>
       <c r="D465" t="n">
-        <v>3982.0</v>
+        <v>3690.0</v>
       </c>
       <c r="E465" t="n">
         <v>1.0</v>
@@ -7962,16 +7962,16 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>129.0</v>
+        <v>196.0</v>
       </c>
       <c r="B466" t="n">
         <v>0.0</v>
       </c>
       <c r="C466" t="n">
-        <v>6557.0</v>
+        <v>7429.0</v>
       </c>
       <c r="D466" t="n">
-        <v>4047.0</v>
+        <v>3737.0</v>
       </c>
       <c r="E466" t="n">
         <v>1.0</v>
@@ -7979,16 +7979,16 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>105.0</v>
+        <v>185.0</v>
       </c>
       <c r="B467" t="n">
         <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>6660.0</v>
+        <v>7423.0</v>
       </c>
       <c r="D467" t="n">
-        <v>4193.0</v>
+        <v>3776.0</v>
       </c>
       <c r="E467" t="n">
         <v>1.0</v>
@@ -7996,16 +7996,16 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>111.0</v>
+        <v>186.0</v>
       </c>
       <c r="B468" t="n">
         <v>0.0</v>
       </c>
       <c r="C468" t="n">
-        <v>6713.0</v>
+        <v>7342.0</v>
       </c>
       <c r="D468" t="n">
-        <v>4154.0</v>
+        <v>3775.0</v>
       </c>
       <c r="E468" t="n">
         <v>1.0</v>
@@ -8013,16 +8013,16 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>124.0</v>
+        <v>197.0</v>
       </c>
       <c r="B469" t="n">
         <v>0.0</v>
       </c>
       <c r="C469" t="n">
-        <v>6891.0</v>
+        <v>7262.0</v>
       </c>
       <c r="D469" t="n">
-        <v>4075.0</v>
+        <v>3725.0</v>
       </c>
       <c r="E469" t="n">
         <v>1.0</v>
@@ -8030,16 +8030,16 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>99.0</v>
+        <v>211.0</v>
       </c>
       <c r="B470" t="n">
         <v>0.0</v>
       </c>
       <c r="C470" t="n">
-        <v>6947.0</v>
+        <v>7331.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4209.0</v>
+        <v>3634.0</v>
       </c>
       <c r="E470" t="n">
         <v>1.0</v>
@@ -8047,16 +8047,16 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>77.0</v>
+        <v>233.0</v>
       </c>
       <c r="B471" t="n">
         <v>0.0</v>
       </c>
       <c r="C471" t="n">
-        <v>6911.0</v>
+        <v>7141.0</v>
       </c>
       <c r="D471" t="n">
-        <v>4296.0</v>
+        <v>3514.0</v>
       </c>
       <c r="E471" t="n">
         <v>1.0</v>
@@ -8064,16 +8064,16 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>68.0</v>
+        <v>247.0</v>
       </c>
       <c r="B472" t="n">
         <v>0.0</v>
       </c>
       <c r="C472" t="n">
-        <v>6868.0</v>
+        <v>7199.0</v>
       </c>
       <c r="D472" t="n">
-        <v>4418.0</v>
+        <v>3469.0</v>
       </c>
       <c r="E472" t="n">
         <v>1.0</v>
@@ -8081,16 +8081,16 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>84.0</v>
+        <v>253.0</v>
       </c>
       <c r="B473" t="n">
         <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>6779.0</v>
+        <v>7321.0</v>
       </c>
       <c r="D473" t="n">
-        <v>4273.0</v>
+        <v>3429.0</v>
       </c>
       <c r="E473" t="n">
         <v>1.0</v>
@@ -8098,16 +8098,16 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>80.0</v>
+        <v>260.0</v>
       </c>
       <c r="B474" t="n">
         <v>0.0</v>
       </c>
       <c r="C474" t="n">
-        <v>6740.0</v>
+        <v>7422.0</v>
       </c>
       <c r="D474" t="n">
-        <v>4282.0</v>
+        <v>3390.0</v>
       </c>
       <c r="E474" t="n">
         <v>1.0</v>
@@ -8115,16 +8115,16 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>58.0</v>
+        <v>267.0</v>
       </c>
       <c r="B475" t="n">
         <v>0.0</v>
       </c>
       <c r="C475" t="n">
-        <v>6735.0</v>
+        <v>7316.0</v>
       </c>
       <c r="D475" t="n">
-        <v>4509.0</v>
+        <v>3360.0</v>
       </c>
       <c r="E475" t="n">
         <v>1.0</v>
@@ -8132,16 +8132,16 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>70.0</v>
+        <v>289.0</v>
       </c>
       <c r="B476" t="n">
         <v>0.0</v>
       </c>
       <c r="C476" t="n">
-        <v>6670.0</v>
+        <v>7299.0</v>
       </c>
       <c r="D476" t="n">
-        <v>4401.0</v>
+        <v>3219.0</v>
       </c>
       <c r="E476" t="n">
         <v>1.0</v>
@@ -8149,16 +8149,16 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>89.0</v>
+        <v>275.0</v>
       </c>
       <c r="B477" t="n">
         <v>0.0</v>
       </c>
       <c r="C477" t="n">
-        <v>6589.0</v>
+        <v>7076.0</v>
       </c>
       <c r="D477" t="n">
-        <v>4256.0</v>
+        <v>3302.0</v>
       </c>
       <c r="E477" t="n">
         <v>1.0</v>
@@ -8166,16 +8166,16 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>107.0</v>
+        <v>283.0</v>
       </c>
       <c r="B478" t="n">
         <v>0.0</v>
       </c>
       <c r="C478" t="n">
-        <v>6607.0</v>
+        <v>7082.0</v>
       </c>
       <c r="D478" t="n">
-        <v>4173.0</v>
+        <v>3235.0</v>
       </c>
       <c r="E478" t="n">
         <v>1.0</v>
@@ -8183,16 +8183,16 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>102.0</v>
+        <v>315.0</v>
       </c>
       <c r="B479" t="n">
         <v>0.0</v>
       </c>
       <c r="C479" t="n">
-        <v>6524.0</v>
+        <v>6881.0</v>
       </c>
       <c r="D479" t="n">
-        <v>4207.0</v>
+        <v>3029.0</v>
       </c>
       <c r="E479" t="n">
         <v>1.0</v>
@@ -8200,16 +8200,16 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>118.0</v>
+        <v>322.0</v>
       </c>
       <c r="B480" t="n">
         <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>6488.0</v>
+        <v>7055.0</v>
       </c>
       <c r="D480" t="n">
-        <v>4128.0</v>
+        <v>2981.0</v>
       </c>
       <c r="E480" t="n">
         <v>1.0</v>
@@ -8217,16 +8217,16 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>110.0</v>
+        <v>309.0</v>
       </c>
       <c r="B481" t="n">
         <v>0.0</v>
       </c>
       <c r="C481" t="n">
-        <v>6450.0</v>
+        <v>7131.0</v>
       </c>
       <c r="D481" t="n">
-        <v>4160.0</v>
+        <v>3081.0</v>
       </c>
       <c r="E481" t="n">
         <v>1.0</v>
@@ -8234,16 +8234,16 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>135.0</v>
+        <v>323.0</v>
       </c>
       <c r="B482" t="n">
         <v>0.0</v>
       </c>
       <c r="C482" t="n">
-        <v>6366.0</v>
+        <v>7238.0</v>
       </c>
       <c r="D482" t="n">
-        <v>4002.0</v>
+        <v>2957.0</v>
       </c>
       <c r="E482" t="n">
         <v>1.0</v>
@@ -8251,16 +8251,16 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>134.0</v>
+        <v>338.0</v>
       </c>
       <c r="B483" t="n">
         <v>0.0</v>
       </c>
       <c r="C483" t="n">
-        <v>6259.0</v>
+        <v>7125.0</v>
       </c>
       <c r="D483" t="n">
-        <v>4030.0</v>
+        <v>2823.0</v>
       </c>
       <c r="E483" t="n">
         <v>1.0</v>
@@ -8268,16 +8268,16 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>119.0</v>
+        <v>357.0</v>
       </c>
       <c r="B484" t="n">
         <v>0.0</v>
       </c>
       <c r="C484" t="n">
-        <v>6312.0</v>
+        <v>7049.0</v>
       </c>
       <c r="D484" t="n">
-        <v>4126.0</v>
+        <v>2570.0</v>
       </c>
       <c r="E484" t="n">
         <v>1.0</v>
@@ -8285,16 +8285,16 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>78.0</v>
+        <v>366.0</v>
       </c>
       <c r="B485" t="n">
         <v>0.0</v>
       </c>
       <c r="C485" t="n">
-        <v>6304.0</v>
+        <v>7104.0</v>
       </c>
       <c r="D485" t="n">
-        <v>4294.0</v>
+        <v>2510.0</v>
       </c>
       <c r="E485" t="n">
         <v>1.0</v>
@@ -8302,16 +8302,16 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>86.0</v>
+        <v>368.0</v>
       </c>
       <c r="B486" t="n">
         <v>0.0</v>
       </c>
       <c r="C486" t="n">
-        <v>6241.0</v>
+        <v>7267.0</v>
       </c>
       <c r="D486" t="n">
-        <v>4268.0</v>
+        <v>2466.0</v>
       </c>
       <c r="E486" t="n">
         <v>1.0</v>
@@ -8319,16 +8319,16 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>75.0</v>
+        <v>373.0</v>
       </c>
       <c r="B487" t="n">
         <v>0.0</v>
       </c>
       <c r="C487" t="n">
-        <v>6237.0</v>
+        <v>7351.0</v>
       </c>
       <c r="D487" t="n">
-        <v>4332.0</v>
+        <v>2376.0</v>
       </c>
       <c r="E487" t="n">
         <v>1.0</v>
@@ -8336,16 +8336,16 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>73.0</v>
+        <v>362.0</v>
       </c>
       <c r="B488" t="n">
         <v>0.0</v>
       </c>
       <c r="C488" t="n">
-        <v>6139.0</v>
+        <v>7304.0</v>
       </c>
       <c r="D488" t="n">
-        <v>4369.0</v>
+        <v>2550.0</v>
       </c>
       <c r="E488" t="n">
         <v>1.0</v>
@@ -8353,16 +8353,16 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>67.0</v>
+        <v>351.0</v>
       </c>
       <c r="B489" t="n">
         <v>0.0</v>
       </c>
       <c r="C489" t="n">
-        <v>6058.0</v>
+        <v>7309.0</v>
       </c>
       <c r="D489" t="n">
-        <v>4426.0</v>
+        <v>2717.0</v>
       </c>
       <c r="E489" t="n">
         <v>1.0</v>
@@ -8370,16 +8370,16 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>91.0</v>
+        <v>333.0</v>
       </c>
       <c r="B490" t="n">
         <v>0.0</v>
       </c>
       <c r="C490" t="n">
-        <v>6051.0</v>
+        <v>7346.0</v>
       </c>
       <c r="D490" t="n">
-        <v>4246.0</v>
+        <v>2858.0</v>
       </c>
       <c r="E490" t="n">
         <v>1.0</v>
@@ -8387,16 +8387,16 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>109.0</v>
+        <v>346.0</v>
       </c>
       <c r="B491" t="n">
         <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>6123.0</v>
+        <v>7458.0</v>
       </c>
       <c r="D491" t="n">
-        <v>4167.0</v>
+        <v>2741.0</v>
       </c>
       <c r="E491" t="n">
         <v>1.0</v>
@@ -8404,16 +8404,16 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>120.0</v>
+        <v>325.0</v>
       </c>
       <c r="B492" t="n">
         <v>0.0</v>
       </c>
       <c r="C492" t="n">
-        <v>6008.0</v>
+        <v>7543.0</v>
       </c>
       <c r="D492" t="n">
-        <v>4117.0</v>
+        <v>2929.0</v>
       </c>
       <c r="E492" t="n">
         <v>1.0</v>
@@ -8421,16 +8421,16 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>103.0</v>
+        <v>342.0</v>
       </c>
       <c r="B493" t="n">
         <v>0.0</v>
       </c>
       <c r="C493" t="n">
-        <v>5871.0</v>
+        <v>7851.0</v>
       </c>
       <c r="D493" t="n">
-        <v>4202.0</v>
+        <v>2809.0</v>
       </c>
       <c r="E493" t="n">
         <v>1.0</v>
@@ -8438,16 +8438,16 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>123.0</v>
+        <v>358.0</v>
       </c>
       <c r="B494" t="n">
         <v>0.0</v>
       </c>
       <c r="C494" t="n">
-        <v>5955.0</v>
+        <v>7753.0</v>
       </c>
       <c r="D494" t="n">
-        <v>4081.0</v>
+        <v>2564.0</v>
       </c>
       <c r="E494" t="n">
         <v>1.0</v>
@@ -8455,16 +8455,16 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>147.0</v>
+        <v>387.0</v>
       </c>
       <c r="B495" t="n">
         <v>0.0</v>
       </c>
       <c r="C495" t="n">
-        <v>5964.0</v>
+        <v>7856.0</v>
       </c>
       <c r="D495" t="n">
-        <v>3935.0</v>
+        <v>2181.0</v>
       </c>
       <c r="E495" t="n">
         <v>1.0</v>
@@ -8472,16 +8472,16 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>154.0</v>
+        <v>397.0</v>
       </c>
       <c r="B496" t="n">
         <v>0.0</v>
       </c>
       <c r="C496" t="n">
-        <v>5926.0</v>
+        <v>7643.0</v>
       </c>
       <c r="D496" t="n">
-        <v>3912.0</v>
+        <v>2048.0</v>
       </c>
       <c r="E496" t="n">
         <v>1.0</v>
@@ -8489,16 +8489,16 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>174.0</v>
+        <v>403.0</v>
       </c>
       <c r="B497" t="n">
         <v>0.0</v>
       </c>
       <c r="C497" t="n">
-        <v>5803.0</v>
+        <v>7822.0</v>
       </c>
       <c r="D497" t="n">
-        <v>3824.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E497" t="n">
         <v>1.0</v>
@@ -8506,16 +8506,16 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>181.0</v>
+        <v>408.0</v>
       </c>
       <c r="B498" t="n">
         <v>0.0</v>
       </c>
       <c r="C498" t="n">
-        <v>5778.0</v>
+        <v>7905.0</v>
       </c>
       <c r="D498" t="n">
-        <v>3813.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E498" t="n">
         <v>1.0</v>
@@ -8523,16 +8523,16 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>175.0</v>
+        <v>414.0</v>
       </c>
       <c r="B499" t="n">
         <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>5720.0</v>
+        <v>7989.0</v>
       </c>
       <c r="D499" t="n">
-        <v>3823.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E499" t="n">
         <v>1.0</v>
@@ -8540,16 +8540,16 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>170.0</v>
+        <v>415.0</v>
       </c>
       <c r="B500" t="n">
         <v>0.0</v>
       </c>
       <c r="C500" t="n">
-        <v>5706.0</v>
+        <v>8063.0</v>
       </c>
       <c r="D500" t="n">
-        <v>3844.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E500" t="n">
         <v>1.0</v>
@@ -8557,16 +8557,16 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>183.0</v>
+        <v>416.0</v>
       </c>
       <c r="B501" t="n">
         <v>0.0</v>
       </c>
       <c r="C501" t="n">
-        <v>5671.0</v>
+        <v>8080.0</v>
       </c>
       <c r="D501" t="n">
-        <v>3807.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E501" t="n">
         <v>1.0</v>
@@ -8574,16 +8574,16 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>204.0</v>
+        <v>413.0</v>
       </c>
       <c r="B502" t="n">
         <v>0.0</v>
       </c>
       <c r="C502" t="n">
-        <v>5751.0</v>
+        <v>8101.0</v>
       </c>
       <c r="D502" t="n">
-        <v>3681.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E502" t="n">
         <v>1.0</v>
@@ -8591,16 +8591,16 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>194.0</v>
+        <v>399.0</v>
       </c>
       <c r="B503" t="n">
         <v>0.0</v>
       </c>
       <c r="C503" t="n">
-        <v>5678.0</v>
+        <v>8080.0</v>
       </c>
       <c r="D503" t="n">
-        <v>3742.0</v>
+        <v>2039.0</v>
       </c>
       <c r="E503" t="n">
         <v>1.0</v>
@@ -8608,16 +8608,16 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>188.0</v>
+        <v>409.0</v>
       </c>
       <c r="B504" t="n">
         <v>0.0</v>
       </c>
       <c r="C504" t="n">
-        <v>5621.0</v>
+        <v>8229.0</v>
       </c>
       <c r="D504" t="n">
-        <v>3768.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E504" t="n">
         <v>1.0</v>
@@ -8625,16 +8625,16 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>187.0</v>
+        <v>425.0</v>
       </c>
       <c r="B505" t="n">
         <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>5541.0</v>
+        <v>8098.0</v>
       </c>
       <c r="D505" t="n">
-        <v>3769.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E505" t="n">
         <v>1.0</v>
@@ -8642,16 +8642,16 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>182.0</v>
+        <v>429.0</v>
       </c>
       <c r="B506" t="n">
         <v>0.0</v>
       </c>
       <c r="C506" t="n">
-        <v>5457.0</v>
+        <v>8184.0</v>
       </c>
       <c r="D506" t="n">
-        <v>3808.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E506" t="n">
         <v>1.0</v>
@@ -8659,16 +8659,16 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>159.0</v>
+        <v>434.0</v>
       </c>
       <c r="B507" t="n">
         <v>0.0</v>
       </c>
       <c r="C507" t="n">
-        <v>5427.0</v>
+        <v>8525.0</v>
       </c>
       <c r="D507" t="n">
-        <v>3894.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E507" t="n">
         <v>1.0</v>
@@ -8676,16 +8676,16 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>136.0</v>
+        <v>448.0</v>
       </c>
       <c r="B508" t="n">
         <v>0.0</v>
       </c>
       <c r="C508" t="n">
-        <v>5597.0</v>
+        <v>8594.0</v>
       </c>
       <c r="D508" t="n">
-        <v>3993.0</v>
+        <v>1510.0</v>
       </c>
       <c r="E508" t="n">
         <v>1.0</v>
@@ -8693,16 +8693,16 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>131.0</v>
+        <v>451.0</v>
       </c>
       <c r="B509" t="n">
         <v>0.0</v>
       </c>
       <c r="C509" t="n">
-        <v>5543.0</v>
+        <v>8605.0</v>
       </c>
       <c r="D509" t="n">
-        <v>4042.0</v>
+        <v>1479.0</v>
       </c>
       <c r="E509" t="n">
         <v>1.0</v>
@@ -8710,16 +8710,16 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>146.0</v>
+        <v>460.0</v>
       </c>
       <c r="B510" t="n">
         <v>0.0</v>
       </c>
       <c r="C510" t="n">
-        <v>5336.0</v>
+        <v>8292.0</v>
       </c>
       <c r="D510" t="n">
-        <v>3943.0</v>
+        <v>1383.0</v>
       </c>
       <c r="E510" t="n">
         <v>1.0</v>
@@ -8727,16 +8727,16 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>195.0</v>
+        <v>453.0</v>
       </c>
       <c r="B511" t="n">
         <v>0.0</v>
       </c>
       <c r="C511" t="n">
-        <v>5207.0</v>
+        <v>8228.0</v>
       </c>
       <c r="D511" t="n">
-        <v>3742.0</v>
+        <v>1471.0</v>
       </c>
       <c r="E511" t="n">
         <v>1.0</v>
@@ -8744,16 +8744,16 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>208.0</v>
+        <v>444.0</v>
       </c>
       <c r="B512" t="n">
         <v>0.0</v>
       </c>
       <c r="C512" t="n">
-        <v>5417.0</v>
+        <v>8038.0</v>
       </c>
       <c r="D512" t="n">
-        <v>3673.0</v>
+        <v>1535.0</v>
       </c>
       <c r="E512" t="n">
         <v>1.0</v>
@@ -8761,16 +8761,16 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>227.0</v>
+        <v>439.0</v>
       </c>
       <c r="B513" t="n">
         <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>5315.0</v>
+        <v>7973.0</v>
       </c>
       <c r="D513" t="n">
-        <v>3557.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E513" t="n">
         <v>1.0</v>
@@ -8778,16 +8778,16 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>228.0</v>
+        <v>436.0</v>
       </c>
       <c r="B514" t="n">
         <v>0.0</v>
       </c>
       <c r="C514" t="n">
-        <v>5316.0</v>
+        <v>7985.0</v>
       </c>
       <c r="D514" t="n">
-        <v>3554.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E514" t="n">
         <v>1.0</v>
@@ -8795,16 +8795,16 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>232.0</v>
+        <v>438.0</v>
       </c>
       <c r="B515" t="n">
         <v>0.0</v>
       </c>
       <c r="C515" t="n">
-        <v>5160.0</v>
+        <v>7926.0</v>
       </c>
       <c r="D515" t="n">
-        <v>3517.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E515" t="n">
         <v>1.0</v>
@@ -8812,16 +8812,16 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>223.0</v>
+        <v>426.0</v>
       </c>
       <c r="B516" t="n">
         <v>0.0</v>
       </c>
       <c r="C516" t="n">
-        <v>5111.0</v>
+        <v>7314.0</v>
       </c>
       <c r="D516" t="n">
-        <v>3569.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E516" t="n">
         <v>1.0</v>
@@ -8829,16 +8829,16 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>213.0</v>
+        <v>423.0</v>
       </c>
       <c r="B517" t="n">
         <v>0.0</v>
       </c>
       <c r="C517" t="n">
-        <v>4965.0</v>
+        <v>7240.0</v>
       </c>
       <c r="D517" t="n">
-        <v>3622.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E517" t="n">
         <v>1.0</v>
@@ -8846,16 +8846,16 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>268.0</v>
+        <v>420.0</v>
       </c>
       <c r="B518" t="n">
         <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>4857.0</v>
+        <v>7218.0</v>
       </c>
       <c r="D518" t="n">
-        <v>3359.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E518" t="n">
         <v>1.0</v>
@@ -8863,16 +8863,16 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>235.0</v>
+        <v>405.0</v>
       </c>
       <c r="B519" t="n">
         <v>0.0</v>
       </c>
       <c r="C519" t="n">
-        <v>4694.0</v>
+        <v>7352.0</v>
       </c>
       <c r="D519" t="n">
-        <v>3502.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E519" t="n">
         <v>1.0</v>
@@ -8880,16 +8880,16 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>202.0</v>
+        <v>404.0</v>
       </c>
       <c r="B520" t="n">
         <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4780.0</v>
+        <v>7416.0</v>
       </c>
       <c r="D520" t="n">
-        <v>3694.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E520" t="n">
         <v>1.0</v>
@@ -8897,16 +8897,16 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>171.0</v>
+        <v>391.0</v>
       </c>
       <c r="B521" t="n">
         <v>0.0</v>
       </c>
       <c r="C521" t="n">
-        <v>4496.0</v>
+        <v>7418.0</v>
       </c>
       <c r="D521" t="n">
-        <v>3844.0</v>
+        <v>2139.0</v>
       </c>
       <c r="E521" t="n">
         <v>1.0</v>
@@ -8914,16 +8914,16 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>172.0</v>
+        <v>381.0</v>
       </c>
       <c r="B522" t="n">
         <v>0.0</v>
       </c>
       <c r="C522" t="n">
-        <v>4574.0</v>
+        <v>7448.0</v>
       </c>
       <c r="D522" t="n">
-        <v>3843.0</v>
+        <v>2291.0</v>
       </c>
       <c r="E522" t="n">
         <v>1.0</v>
@@ -8931,16 +8931,16 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>165.0</v>
+        <v>388.0</v>
       </c>
       <c r="B523" t="n">
         <v>0.0</v>
       </c>
       <c r="C523" t="n">
-        <v>4694.0</v>
+        <v>7315.0</v>
       </c>
       <c r="D523" t="n">
-        <v>3877.0</v>
+        <v>2181.0</v>
       </c>
       <c r="E523" t="n">
         <v>1.0</v>
@@ -8948,16 +8948,16 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>152.0</v>
+        <v>382.0</v>
       </c>
       <c r="B524" t="n">
         <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>4806.0</v>
+        <v>7087.0</v>
       </c>
       <c r="D524" t="n">
-        <v>3914.0</v>
+        <v>2274.0</v>
       </c>
       <c r="E524" t="n">
         <v>1.0</v>
@@ -8965,16 +8965,16 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>137.0</v>
+        <v>376.0</v>
       </c>
       <c r="B525" t="n">
         <v>0.0</v>
       </c>
       <c r="C525" t="n">
-        <v>4655.0</v>
+        <v>7015.0</v>
       </c>
       <c r="D525" t="n">
-        <v>3992.0</v>
+        <v>2333.0</v>
       </c>
       <c r="E525" t="n">
         <v>1.0</v>
@@ -8982,16 +8982,16 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>128.0</v>
+        <v>392.0</v>
       </c>
       <c r="B526" t="n">
         <v>0.0</v>
       </c>
       <c r="C526" t="n">
-        <v>4607.0</v>
+        <v>6885.0</v>
       </c>
       <c r="D526" t="n">
-        <v>4049.0</v>
+        <v>2138.0</v>
       </c>
       <c r="E526" t="n">
         <v>1.0</v>
@@ -8999,16 +8999,16 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>127.0</v>
+        <v>410.0</v>
       </c>
       <c r="B527" t="n">
         <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>4634.0</v>
+        <v>6803.0</v>
       </c>
       <c r="D527" t="n">
-        <v>4054.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E527" t="n">
         <v>1.0</v>
@@ -9016,16 +9016,16 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>122.0</v>
+        <v>419.0</v>
       </c>
       <c r="B528" t="n">
         <v>0.0</v>
       </c>
       <c r="C528" t="n">
-        <v>4679.0</v>
+        <v>6826.0</v>
       </c>
       <c r="D528" t="n">
-        <v>4084.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E528" t="n">
         <v>1.0</v>
@@ -9033,16 +9033,16 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>116.0</v>
+        <v>435.0</v>
       </c>
       <c r="B529" t="n">
         <v>0.0</v>
       </c>
       <c r="C529" t="n">
-        <v>4871.0</v>
+        <v>6765.0</v>
       </c>
       <c r="D529" t="n">
-        <v>4132.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E529" t="n">
         <v>1.0</v>
@@ -9050,16 +9050,16 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>101.0</v>
+        <v>437.0</v>
       </c>
       <c r="B530" t="n">
         <v>0.0</v>
       </c>
       <c r="C530" t="n">
-        <v>5168.0</v>
+        <v>6854.0</v>
       </c>
       <c r="D530" t="n">
-        <v>4208.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E530" t="n">
         <v>1.0</v>
@@ -9067,16 +9067,16 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>92.0</v>
+        <v>430.0</v>
       </c>
       <c r="B531" t="n">
         <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>5356.0</v>
+        <v>6932.0</v>
       </c>
       <c r="D531" t="n">
-        <v>4241.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E531" t="n">
         <v>1.0</v>
@@ -9084,16 +9084,16 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>76.0</v>
+        <v>427.0</v>
       </c>
       <c r="B532" t="n">
         <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>5385.0</v>
+        <v>7035.0</v>
       </c>
       <c r="D532" t="n">
-        <v>4318.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E532" t="n">
         <v>1.0</v>
@@ -9101,16 +9101,16 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>56.0</v>
+        <v>424.0</v>
       </c>
       <c r="B533" t="n">
         <v>0.0</v>
       </c>
       <c r="C533" t="n">
-        <v>5685.0</v>
+        <v>7046.0</v>
       </c>
       <c r="D533" t="n">
-        <v>4546.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E533" t="n">
         <v>1.0</v>
@@ -9118,16 +9118,16 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>50.0</v>
+        <v>417.0</v>
       </c>
       <c r="B534" t="n">
         <v>0.0</v>
       </c>
       <c r="C534" t="n">
-        <v>5387.0</v>
+        <v>7004.0</v>
       </c>
       <c r="D534" t="n">
-        <v>4623.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E534" t="n">
         <v>1.0</v>
@@ -9135,16 +9135,16 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>41.0</v>
+        <v>402.0</v>
       </c>
       <c r="B535" t="n">
         <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>5259.0</v>
+        <v>7152.0</v>
       </c>
       <c r="D535" t="n">
-        <v>4751.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E535" t="n">
         <v>1.0</v>
